--- a/BackTest/2020-01-16 BackTest TRX.xlsx
+++ b/BackTest/2020-01-16 BackTest TRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -682,11 +682,17 @@
         <v>-1413480.907810921</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>17.13</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +721,17 @@
         <v>-640667.8391053906</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>17.07</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +760,17 @@
         <v>-1137471.96630539</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>17.09</v>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,7 +799,7 @@
         <v>-1096750.636205391</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>17.05</v>
@@ -789,7 +807,7 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -820,7 +838,7 @@
         <v>-1096750.636205391</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>17.08</v>
@@ -859,7 +877,7 @@
         <v>-1040335.209746521</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>17.08</v>
@@ -898,7 +916,7 @@
         <v>-1040335.209746521</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>17.12</v>
@@ -937,7 +955,7 @@
         <v>-803570.1228465205</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>17.12</v>
@@ -976,7 +994,7 @@
         <v>-439544.5744465205</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>17.2</v>
@@ -1015,7 +1033,7 @@
         <v>-536144.9662465205</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>17.23</v>
@@ -1054,7 +1072,7 @@
         <v>-424174.0997465205</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>17.21</v>
@@ -1093,7 +1111,7 @@
         <v>-700886.7641465205</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>17.22</v>
@@ -1132,7 +1150,7 @@
         <v>-668377.5593465206</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>17.05</v>
@@ -1171,7 +1189,7 @@
         <v>-668377.5593465206</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>17.17</v>
@@ -1210,7 +1228,7 @@
         <v>-1553540.133392611</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>17.17</v>
@@ -1249,7 +1267,7 @@
         <v>-1967974.119792611</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>17.14</v>
@@ -1288,7 +1306,7 @@
         <v>906218.4967238794</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>17.05</v>
@@ -1327,7 +1345,7 @@
         <v>-2063388.912290161</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>17.09</v>
@@ -1366,7 +1384,7 @@
         <v>-1811848.241343881</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>17.05</v>
@@ -1405,7 +1423,7 @@
         <v>-1811848.241343881</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>17.09</v>
@@ -1444,9 +1462,11 @@
         <v>-1798331.107843881</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>17.09</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
@@ -1481,7 +1501,7 @@
         <v>-1799833.107843881</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>17.1</v>
@@ -1520,7 +1540,7 @@
         <v>-1771031.523043881</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>17.09</v>
@@ -1559,7 +1579,7 @@
         <v>-1816396.270443881</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>17.14</v>
@@ -1598,7 +1618,7 @@
         <v>-1816396.270443881</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>17.07</v>
@@ -1637,7 +1657,7 @@
         <v>-1706609.360243881</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>17.07</v>
@@ -1676,7 +1696,7 @@
         <v>-1177976.067243881</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>17.1</v>
@@ -1715,7 +1735,7 @@
         <v>-530376.5302438806</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>17.15</v>
@@ -1754,7 +1774,7 @@
         <v>-530376.5302438806</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>17.2</v>
@@ -1793,7 +1813,7 @@
         <v>-519569.0502438806</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>17.2</v>
@@ -1832,7 +1852,7 @@
         <v>-540520.2323438806</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>17.23</v>
@@ -1871,7 +1891,7 @@
         <v>-537797.2839438806</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>17.15</v>
@@ -1910,7 +1930,7 @@
         <v>-551084.4166438805</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>17.2</v>
@@ -1949,7 +1969,7 @@
         <v>-52847.02324388054</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>17.17</v>
@@ -1988,9 +2008,11 @@
         <v>97308.62825611947</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>17.23</v>
+      </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
@@ -2025,9 +2047,11 @@
         <v>2778797.36935612</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>17.24</v>
+      </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
@@ -2062,9 +2086,11 @@
         <v>2775761.34575612</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>17.31</v>
+      </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
@@ -2247,9 +2273,11 @@
         <v>2946947.533256119</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>17.34</v>
+      </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
@@ -2358,9 +2386,11 @@
         <v>3330807.20705612</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>17.39</v>
+      </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
@@ -17195,16 +17225,18 @@
         <v>31659992.69239363</v>
       </c>
       <c r="H454" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L454" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L454" t="n">
+        <v>1</v>
+      </c>
       <c r="M454" t="inlineStr"/>
     </row>
     <row r="455">
@@ -17234,7 +17266,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -17267,7 +17303,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17300,7 +17340,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17333,7 +17377,11 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17366,7 +17414,11 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17395,11 +17447,15 @@
         <v>37133925.61760446</v>
       </c>
       <c r="H460" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17428,11 +17484,15 @@
         <v>40107602.47130445</v>
       </c>
       <c r="H461" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17461,11 +17521,15 @@
         <v>41130455.07460445</v>
       </c>
       <c r="H462" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17498,7 +17562,11 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17527,11 +17595,15 @@
         <v>42100077.71465001</v>
       </c>
       <c r="H464" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17560,11 +17632,15 @@
         <v>42100077.71465001</v>
       </c>
       <c r="H465" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17593,11 +17669,15 @@
         <v>42677484.12734959</v>
       </c>
       <c r="H466" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17630,7 +17710,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17663,7 +17747,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17696,7 +17784,11 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17729,7 +17821,11 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17762,7 +17858,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17795,7 +17895,11 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17828,7 +17932,11 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17861,7 +17969,11 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17894,7 +18006,11 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17923,11 +18039,15 @@
         <v>52603099.55881903</v>
       </c>
       <c r="H476" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17956,11 +18076,15 @@
         <v>50723789.38612539</v>
       </c>
       <c r="H477" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17989,11 +18113,15 @@
         <v>49387335.38352539</v>
       </c>
       <c r="H478" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -18022,11 +18150,15 @@
         <v>50408846.89842539</v>
       </c>
       <c r="H479" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -18059,7 +18191,11 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -18092,7 +18228,11 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -18125,7 +18265,11 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -18158,7 +18302,11 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -18191,7 +18339,11 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -18224,7 +18376,11 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -18257,7 +18413,11 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -18290,7 +18450,11 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -18323,7 +18487,11 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -18356,7 +18524,11 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18389,7 +18561,11 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18418,11 +18594,15 @@
         <v>43294449.27019139</v>
       </c>
       <c r="H491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -18451,11 +18631,15 @@
         <v>43189439.33919139</v>
       </c>
       <c r="H492" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -18484,11 +18668,15 @@
         <v>43189439.33919139</v>
       </c>
       <c r="H493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -18521,7 +18709,11 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -18550,11 +18742,15 @@
         <v>43499263.27139139</v>
       </c>
       <c r="H495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -18583,11 +18779,15 @@
         <v>43718305.24411479</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -18620,7 +18820,11 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -18653,7 +18857,11 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -18682,11 +18890,15 @@
         <v>43154997.22707223</v>
       </c>
       <c r="H499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18715,11 +18927,15 @@
         <v>43154997.22707223</v>
       </c>
       <c r="H500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18752,7 +18968,11 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -18785,7 +19005,11 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -18814,11 +19038,15 @@
         <v>43387990.85869472</v>
       </c>
       <c r="H503" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -18847,11 +19075,15 @@
         <v>43910543.37599473</v>
       </c>
       <c r="H504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -18884,7 +19116,11 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -18917,7 +19153,11 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -18950,7 +19190,11 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18979,11 +19223,15 @@
         <v>45143062.35052872</v>
       </c>
       <c r="H508" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -19016,7 +19264,11 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -19049,7 +19301,11 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -19082,7 +19338,11 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -19115,7 +19375,11 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -19148,7 +19412,11 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -19181,7 +19449,11 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -19214,7 +19486,11 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -19247,7 +19523,11 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -19280,7 +19560,11 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -19313,7 +19597,11 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -19346,7 +19634,11 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -19379,7 +19671,11 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -19412,7 +19708,11 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -19445,7 +19745,11 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -19478,7 +19782,11 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -19511,7 +19819,11 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -19544,7 +19856,11 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -19577,7 +19893,11 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -19610,7 +19930,11 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -19643,7 +19967,11 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -19676,7 +20004,11 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -19709,7 +20041,11 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -19742,7 +20078,11 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -19775,7 +20115,11 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -19808,7 +20152,11 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -19841,7 +20189,11 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -19874,7 +20226,11 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -19907,7 +20263,11 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -19940,7 +20300,11 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -19973,7 +20337,11 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -20006,7 +20374,11 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -20039,7 +20411,11 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -20072,7 +20448,11 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -20105,7 +20485,11 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -20138,7 +20522,11 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -20171,7 +20559,11 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -20204,7 +20596,11 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -20237,7 +20633,11 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -20270,7 +20670,11 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -20303,7 +20707,11 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -20336,7 +20744,11 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -20369,7 +20781,11 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -20402,7 +20818,11 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -20435,7 +20855,11 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -20468,7 +20892,11 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -20501,7 +20929,11 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -20534,7 +20966,11 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -20567,7 +21003,11 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -20600,7 +21040,11 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -20633,7 +21077,11 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -20666,7 +21114,11 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -20699,7 +21151,11 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -20732,7 +21188,11 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -20765,7 +21225,11 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -20798,7 +21262,11 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -20831,7 +21299,11 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -20864,7 +21336,11 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -20897,7 +21373,11 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -20930,7 +21410,11 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -20963,7 +21447,11 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -20996,7 +21484,11 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -21029,7 +21521,11 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -21062,7 +21558,11 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -21095,7 +21595,11 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -21128,7 +21632,11 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -21161,7 +21669,11 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -21194,7 +21706,11 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -21227,7 +21743,11 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -21260,7 +21780,11 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -21293,7 +21817,11 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -21326,7 +21854,11 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -21359,7 +21891,11 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -21392,7 +21928,11 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -21425,7 +21965,11 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -21458,7 +22002,11 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -21491,7 +22039,11 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -21524,7 +22076,11 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -21557,7 +22113,11 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -21590,7 +22150,11 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -21623,7 +22187,11 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -21656,7 +22224,11 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -21689,7 +22261,11 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -21722,7 +22298,11 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -21755,7 +22335,11 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -21788,7 +22372,11 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -21821,7 +22409,11 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -21854,7 +22446,11 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -21883,11 +22479,15 @@
         <v>46634715.62071234</v>
       </c>
       <c r="H596" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -21916,11 +22516,15 @@
         <v>46634715.62071234</v>
       </c>
       <c r="H597" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -21949,11 +22553,15 @@
         <v>46699087.48511234</v>
       </c>
       <c r="H598" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -21982,11 +22590,15 @@
         <v>46625927.29651234</v>
       </c>
       <c r="H599" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -22015,11 +22627,15 @@
         <v>46625959.68721233</v>
       </c>
       <c r="H600" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -22048,11 +22664,15 @@
         <v>46243967.18331233</v>
       </c>
       <c r="H601" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -22085,7 +22705,11 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -22118,7 +22742,11 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -22151,7 +22779,11 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -22184,7 +22816,11 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -22217,7 +22853,11 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -22250,7 +22890,11 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -22283,7 +22927,11 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -22316,7 +22964,11 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -22349,7 +23001,11 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -22382,7 +23038,11 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -22415,7 +23075,11 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -22448,7 +23112,11 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -22481,7 +23149,11 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -22514,7 +23186,11 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -22547,7 +23223,11 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -22580,7 +23260,11 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -22613,7 +23297,11 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -22646,7 +23334,11 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -22679,7 +23371,11 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -22712,7 +23408,11 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -22745,7 +23445,11 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -22778,7 +23482,11 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -22811,7 +23519,11 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -22844,7 +23556,11 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -22877,7 +23593,11 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -22910,7 +23630,11 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -22943,7 +23667,11 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -22976,7 +23704,11 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -23009,7 +23741,11 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -23042,7 +23778,11 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -23075,7 +23815,11 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -23108,7 +23852,11 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -23141,7 +23889,11 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -23174,7 +23926,11 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -23207,7 +23963,11 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -23240,7 +24000,11 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -23273,7 +24037,11 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -23306,7 +24074,11 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -23339,7 +24111,11 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -23372,7 +24148,11 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -23405,7 +24185,11 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -23438,7 +24222,11 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -23471,7 +24259,11 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -23504,7 +24296,11 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -23537,7 +24333,11 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -23570,7 +24370,11 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -23603,7 +24407,11 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -23636,7 +24444,11 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -23669,7 +24481,11 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -23702,7 +24518,11 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -23735,7 +24555,11 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -23768,7 +24592,11 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -23801,7 +24629,11 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -23834,7 +24666,11 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -23867,7 +24703,11 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -23900,7 +24740,11 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -23933,7 +24777,11 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -23966,7 +24814,11 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -23999,7 +24851,11 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -24032,7 +24888,11 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -24065,7 +24925,11 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -24098,7 +24962,11 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -24131,7 +24999,11 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -24164,7 +25036,11 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -24197,7 +25073,11 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -24230,7 +25110,11 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -24263,7 +25147,11 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -24296,7 +25184,11 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -24329,7 +25221,11 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -24362,7 +25258,11 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -24395,7 +25295,11 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -24428,7 +25332,11 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -24461,7 +25369,11 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -24494,7 +25406,11 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -24527,7 +25443,11 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -24560,7 +25480,11 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -24593,7 +25517,11 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -24626,7 +25554,11 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -24659,7 +25591,11 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -24692,7 +25628,11 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -24725,7 +25665,11 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -24758,7 +25702,11 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -24791,7 +25739,11 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -24824,7 +25776,11 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -24857,7 +25813,11 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -24890,7 +25850,11 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -24923,7 +25887,11 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -24956,7 +25924,11 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -24989,7 +25961,11 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -25022,7 +25998,11 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -25055,7 +26035,11 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -25088,7 +26072,11 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -25121,7 +26109,11 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -25154,7 +26146,11 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -25187,7 +26183,11 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -25220,7 +26220,11 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -25253,7 +26257,11 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -25286,7 +26294,11 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -25319,7 +26331,11 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -25352,7 +26368,11 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -25385,7 +26405,11 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -25418,7 +26442,11 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -25451,7 +26479,11 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -25484,7 +26516,11 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -25517,7 +26553,11 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -25550,7 +26590,11 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -25583,7 +26627,11 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -25616,7 +26664,11 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -25649,7 +26701,11 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -25682,7 +26738,11 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -25715,7 +26775,11 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -25748,7 +26812,11 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -25781,7 +26849,11 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -25814,7 +26886,11 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -25847,7 +26923,11 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -25880,7 +26960,11 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -25913,7 +26997,11 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -25946,7 +27034,11 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -25979,7 +27071,11 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -26012,7 +27108,11 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -26045,7 +27145,11 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -26078,7 +27182,11 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -26111,7 +27219,11 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -26144,7 +27256,11 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -26177,7 +27293,11 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -26210,7 +27330,11 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -26243,7 +27367,11 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -26276,7 +27404,11 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -26309,7 +27441,11 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -26342,7 +27478,11 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -26375,7 +27515,11 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -26408,7 +27552,11 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -26441,7 +27589,11 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -26474,7 +27626,11 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -26507,7 +27663,11 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -26540,7 +27700,11 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -26573,7 +27737,11 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -26606,7 +27774,11 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -26639,7 +27811,11 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -26672,7 +27848,11 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -26705,7 +27885,11 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -26738,7 +27922,11 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -26771,7 +27959,11 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -26804,7 +27996,11 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -26837,7 +28033,11 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -26870,7 +28070,11 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -26903,7 +28107,11 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -26936,7 +28144,11 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -26969,7 +28181,11 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -27002,7 +28218,11 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -27035,7 +28255,11 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -27068,7 +28292,11 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -27101,7 +28329,11 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -27134,7 +28366,11 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -27167,7 +28403,11 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -27200,7 +28440,11 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -27233,7 +28477,11 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -27266,7 +28514,11 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -27299,7 +28551,11 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -27332,7 +28588,11 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -27365,7 +28625,11 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -27398,7 +28662,11 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -27431,7 +28699,11 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -27464,7 +28736,11 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -27497,7 +28773,11 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -27530,7 +28810,11 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -27563,7 +28847,11 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -27596,7 +28884,11 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -27629,7 +28921,11 @@
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -27662,7 +28958,11 @@
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -27695,7 +28995,11 @@
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -27728,7 +29032,11 @@
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -27761,7 +29069,11 @@
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -27794,7 +29106,11 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -27827,7 +29143,11 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -27860,7 +29180,11 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -27893,7 +29217,11 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -27926,7 +29254,11 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -27959,7 +29291,11 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -27992,7 +29328,11 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -28025,7 +29365,11 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -28058,7 +29402,11 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -28091,7 +29439,11 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -28124,7 +29476,11 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -28157,7 +29513,11 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -28190,7 +29550,11 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -28223,7 +29587,11 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -28256,7 +29624,11 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -28289,7 +29661,11 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -28322,7 +29698,11 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -28355,7 +29735,11 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -28388,7 +29772,11 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -28421,7 +29809,11 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -28454,7 +29846,11 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -28487,7 +29883,11 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -28520,7 +29920,11 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -28549,11 +29953,15 @@
         <v>33144349.52855939</v>
       </c>
       <c r="H798" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -28582,11 +29990,15 @@
         <v>34085625.41881166</v>
       </c>
       <c r="H799" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -28615,11 +30027,15 @@
         <v>31768538.06041166</v>
       </c>
       <c r="H800" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -28648,11 +30064,15 @@
         <v>32334040.07821166</v>
       </c>
       <c r="H801" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -28681,11 +30101,15 @@
         <v>33167971.25871166</v>
       </c>
       <c r="H802" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -28714,11 +30138,15 @@
         <v>33110197.94851166</v>
       </c>
       <c r="H803" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -28747,11 +30175,15 @@
         <v>32987276.75261166</v>
       </c>
       <c r="H804" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -28780,11 +30212,15 @@
         <v>32865631.81081166</v>
       </c>
       <c r="H805" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -28813,11 +30249,15 @@
         <v>32865631.81081166</v>
       </c>
       <c r="H806" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -28846,11 +30286,15 @@
         <v>32865631.81081166</v>
       </c>
       <c r="H807" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -28879,11 +30323,15 @@
         <v>33221835.19061166</v>
       </c>
       <c r="H808" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -28916,7 +30364,11 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -28949,7 +30401,11 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -28982,7 +30438,11 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -29015,7 +30475,11 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -29048,7 +30512,11 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -29081,7 +30549,11 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -29114,7 +30586,11 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -29147,7 +30623,11 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -29180,7 +30660,11 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -29213,7 +30697,11 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -29246,7 +30734,11 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -29279,7 +30771,11 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -29312,7 +30808,11 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -29345,7 +30845,11 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -29378,7 +30882,11 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -29411,7 +30919,11 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -29444,7 +30956,11 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -29477,7 +30993,11 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -29510,7 +31030,11 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -29543,7 +31067,11 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -29576,7 +31104,11 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -29609,7 +31141,11 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -29642,7 +31178,11 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -29675,7 +31215,11 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -29708,7 +31252,11 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -29741,7 +31289,11 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -29774,7 +31326,11 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -29807,7 +31363,11 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -29840,7 +31400,11 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -29873,7 +31437,11 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -29906,7 +31474,11 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -29939,7 +31511,11 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -29972,7 +31548,11 @@
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -30005,7 +31585,11 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -30038,7 +31622,11 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -30071,7 +31659,11 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -30104,7 +31696,11 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -30137,7 +31733,11 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -30170,7 +31770,11 @@
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -30203,7 +31807,11 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -30236,7 +31844,11 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -30269,7 +31881,11 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -30302,7 +31918,11 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -30335,7 +31955,11 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -30368,7 +31992,11 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -30401,7 +32029,11 @@
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -30434,7 +32066,11 @@
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -30467,7 +32103,11 @@
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -30500,7 +32140,11 @@
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -30533,7 +32177,11 @@
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -30566,7 +32214,11 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -30599,7 +32251,11 @@
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -30632,7 +32288,11 @@
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -30665,7 +32325,11 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -30698,7 +32362,11 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -30731,7 +32399,11 @@
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -30764,7 +32436,11 @@
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -30797,7 +32473,11 @@
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -30830,7 +32510,11 @@
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -30863,7 +32547,11 @@
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -30896,7 +32584,11 @@
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -30929,7 +32621,11 @@
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -30962,7 +32658,11 @@
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -30995,7 +32695,11 @@
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -31028,7 +32732,11 @@
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -31061,7 +32769,11 @@
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -31094,7 +32806,11 @@
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -31127,7 +32843,11 @@
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -31160,7 +32880,11 @@
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -31193,7 +32917,11 @@
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -31226,7 +32954,11 @@
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -31259,7 +32991,11 @@
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -31292,7 +33028,11 @@
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -31325,7 +33065,11 @@
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -31358,7 +33102,11 @@
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -31391,7 +33139,11 @@
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -31424,7 +33176,11 @@
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr"/>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -31457,7 +33213,11 @@
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr"/>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -31490,7 +33250,11 @@
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr"/>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -31523,7 +33287,11 @@
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr"/>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -31556,7 +33324,11 @@
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -31589,7 +33361,11 @@
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -31622,7 +33398,11 @@
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -31655,7 +33435,11 @@
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -31688,7 +33472,11 @@
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -31721,7 +33509,11 @@
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr"/>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -31754,7 +33546,11 @@
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr"/>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -31787,7 +33583,11 @@
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr"/>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -31820,7 +33620,11 @@
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -31853,7 +33657,11 @@
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -31886,7 +33694,11 @@
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr"/>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -31915,11 +33727,15 @@
         <v>34179986.90617256</v>
       </c>
       <c r="H900" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr"/>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -31948,11 +33764,15 @@
         <v>34175978.58157256</v>
       </c>
       <c r="H901" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr"/>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -31981,11 +33801,15 @@
         <v>34207579.49017256</v>
       </c>
       <c r="H902" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr"/>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -32018,7 +33842,11 @@
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr"/>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -32051,7 +33879,11 @@
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr"/>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -32084,7 +33916,11 @@
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr"/>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -32117,7 +33953,11 @@
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr"/>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -32150,7 +33990,11 @@
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr"/>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -32183,7 +34027,11 @@
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr"/>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -32216,7 +34064,11 @@
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr"/>
+      <c r="K909" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -32249,7 +34101,11 @@
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr"/>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -32282,7 +34138,11 @@
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr"/>
+      <c r="K911" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -32315,7 +34175,11 @@
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr"/>
+      <c r="K912" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -32348,7 +34212,11 @@
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr"/>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -32381,7 +34249,11 @@
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr"/>
+      <c r="K914" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -32414,7 +34286,11 @@
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr"/>
+      <c r="K915" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -32447,7 +34323,11 @@
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr"/>
+      <c r="K916" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -32480,7 +34360,11 @@
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr"/>
+      <c r="K917" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -32513,7 +34397,11 @@
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr"/>
+      <c r="K918" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -32546,7 +34434,11 @@
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr"/>
+      <c r="K919" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -32579,7 +34471,11 @@
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr"/>
+      <c r="K920" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -32612,7 +34508,11 @@
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr"/>
+      <c r="K921" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -32645,7 +34545,11 @@
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr"/>
+      <c r="K922" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -32678,7 +34582,11 @@
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr"/>
+      <c r="K923" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -32711,7 +34619,11 @@
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr"/>
+      <c r="K924" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -32744,7 +34656,11 @@
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr"/>
+      <c r="K925" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -32777,7 +34693,11 @@
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr"/>
+      <c r="K926" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -32810,7 +34730,11 @@
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr"/>
+      <c r="K927" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -32843,7 +34767,11 @@
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
-      <c r="K928" t="inlineStr"/>
+      <c r="K928" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L928" t="n">
         <v>1</v>
       </c>
@@ -32876,7 +34804,11 @@
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
-      <c r="K929" t="inlineStr"/>
+      <c r="K929" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -32909,7 +34841,11 @@
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
-      <c r="K930" t="inlineStr"/>
+      <c r="K930" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -32942,7 +34878,11 @@
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
-      <c r="K931" t="inlineStr"/>
+      <c r="K931" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -32975,7 +34915,11 @@
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
-      <c r="K932" t="inlineStr"/>
+      <c r="K932" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -33008,7 +34952,11 @@
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
-      <c r="K933" t="inlineStr"/>
+      <c r="K933" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -33041,7 +34989,11 @@
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
-      <c r="K934" t="inlineStr"/>
+      <c r="K934" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -33074,7 +35026,11 @@
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
-      <c r="K935" t="inlineStr"/>
+      <c r="K935" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L935" t="n">
         <v>1</v>
       </c>
@@ -33107,7 +35063,11 @@
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
-      <c r="K936" t="inlineStr"/>
+      <c r="K936" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L936" t="n">
         <v>1</v>
       </c>
@@ -33140,7 +35100,11 @@
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
-      <c r="K937" t="inlineStr"/>
+      <c r="K937" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L937" t="n">
         <v>1</v>
       </c>
@@ -33173,7 +35137,11 @@
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
-      <c r="K938" t="inlineStr"/>
+      <c r="K938" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L938" t="n">
         <v>1</v>
       </c>
@@ -33206,7 +35174,11 @@
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
-      <c r="K939" t="inlineStr"/>
+      <c r="K939" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L939" t="n">
         <v>1</v>
       </c>
@@ -33239,7 +35211,11 @@
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
-      <c r="K940" t="inlineStr"/>
+      <c r="K940" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L940" t="n">
         <v>1</v>
       </c>
@@ -33272,7 +35248,11 @@
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
-      <c r="K941" t="inlineStr"/>
+      <c r="K941" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L941" t="n">
         <v>1</v>
       </c>
@@ -33305,7 +35285,11 @@
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr"/>
+      <c r="K942" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -33338,7 +35322,11 @@
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
-      <c r="K943" t="inlineStr"/>
+      <c r="K943" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -33371,7 +35359,11 @@
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
-      <c r="K944" t="inlineStr"/>
+      <c r="K944" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -33404,7 +35396,11 @@
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
-      <c r="K945" t="inlineStr"/>
+      <c r="K945" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -33437,7 +35433,11 @@
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
-      <c r="K946" t="inlineStr"/>
+      <c r="K946" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -33470,7 +35470,11 @@
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
-      <c r="K947" t="inlineStr"/>
+      <c r="K947" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L947" t="n">
         <v>1</v>
       </c>
@@ -33503,7 +35507,11 @@
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
-      <c r="K948" t="inlineStr"/>
+      <c r="K948" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L948" t="n">
         <v>1</v>
       </c>
@@ -33536,7 +35544,11 @@
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
-      <c r="K949" t="inlineStr"/>
+      <c r="K949" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -33569,7 +35581,11 @@
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
-      <c r="K950" t="inlineStr"/>
+      <c r="K950" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -33602,7 +35618,11 @@
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
-      <c r="K951" t="inlineStr"/>
+      <c r="K951" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -33635,7 +35655,11 @@
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
-      <c r="K952" t="inlineStr"/>
+      <c r="K952" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -33668,7 +35692,11 @@
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
-      <c r="K953" t="inlineStr"/>
+      <c r="K953" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -33701,7 +35729,11 @@
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
-      <c r="K954" t="inlineStr"/>
+      <c r="K954" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -33734,7 +35766,11 @@
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
-      <c r="K955" t="inlineStr"/>
+      <c r="K955" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -33767,7 +35803,11 @@
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
-      <c r="K956" t="inlineStr"/>
+      <c r="K956" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -33800,7 +35840,11 @@
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
-      <c r="K957" t="inlineStr"/>
+      <c r="K957" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -33833,7 +35877,11 @@
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
-      <c r="K958" t="inlineStr"/>
+      <c r="K958" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -33866,7 +35914,11 @@
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
-      <c r="K959" t="inlineStr"/>
+      <c r="K959" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L959" t="n">
         <v>1</v>
       </c>
@@ -33899,7 +35951,11 @@
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
-      <c r="K960" t="inlineStr"/>
+      <c r="K960" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L960" t="n">
         <v>1</v>
       </c>
@@ -33932,7 +35988,11 @@
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
-      <c r="K961" t="inlineStr"/>
+      <c r="K961" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L961" t="n">
         <v>1</v>
       </c>
@@ -33961,11 +36021,15 @@
         <v>38226070.33980147</v>
       </c>
       <c r="H962" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
-      <c r="K962" t="inlineStr"/>
+      <c r="K962" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L962" t="n">
         <v>1</v>
       </c>
@@ -33994,11 +36058,15 @@
         <v>39252160.91150147</v>
       </c>
       <c r="H963" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
-      <c r="K963" t="inlineStr"/>
+      <c r="K963" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L963" t="n">
         <v>1</v>
       </c>
@@ -34027,11 +36095,15 @@
         <v>39723411.62116187</v>
       </c>
       <c r="H964" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
-      <c r="K964" t="inlineStr"/>
+      <c r="K964" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L964" t="n">
         <v>1</v>
       </c>
@@ -34060,11 +36132,15 @@
         <v>39723282.62216187</v>
       </c>
       <c r="H965" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
-      <c r="K965" t="inlineStr"/>
+      <c r="K965" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L965" t="n">
         <v>1</v>
       </c>
@@ -34093,11 +36169,15 @@
         <v>39256404.53996187</v>
       </c>
       <c r="H966" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
-      <c r="K966" t="inlineStr"/>
+      <c r="K966" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L966" t="n">
         <v>1</v>
       </c>
@@ -34126,11 +36206,15 @@
         <v>39294877.60846187</v>
       </c>
       <c r="H967" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
-      <c r="K967" t="inlineStr"/>
+      <c r="K967" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L967" t="n">
         <v>1</v>
       </c>
@@ -34159,11 +36243,15 @@
         <v>39353918.47536187</v>
       </c>
       <c r="H968" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
-      <c r="K968" t="inlineStr"/>
+      <c r="K968" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L968" t="n">
         <v>1</v>
       </c>
@@ -34196,7 +36284,11 @@
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
-      <c r="K969" t="inlineStr"/>
+      <c r="K969" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L969" t="n">
         <v>1</v>
       </c>
@@ -34225,11 +36317,15 @@
         <v>38900923.66356187</v>
       </c>
       <c r="H970" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
-      <c r="K970" t="inlineStr"/>
+      <c r="K970" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L970" t="n">
         <v>1</v>
       </c>
@@ -34262,7 +36358,11 @@
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
-      <c r="K971" t="inlineStr"/>
+      <c r="K971" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L971" t="n">
         <v>1</v>
       </c>
@@ -34295,7 +36395,11 @@
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
-      <c r="K972" t="inlineStr"/>
+      <c r="K972" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -34328,7 +36432,11 @@
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
-      <c r="K973" t="inlineStr"/>
+      <c r="K973" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -34357,11 +36465,15 @@
         <v>38662829.72953217</v>
       </c>
       <c r="H974" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
-      <c r="K974" t="inlineStr"/>
+      <c r="K974" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L974" t="n">
         <v>1</v>
       </c>
@@ -34394,7 +36506,11 @@
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
-      <c r="K975" t="inlineStr"/>
+      <c r="K975" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -34427,7 +36543,11 @@
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
-      <c r="K976" t="inlineStr"/>
+      <c r="K976" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -34460,7 +36580,11 @@
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
-      <c r="K977" t="inlineStr"/>
+      <c r="K977" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -34489,11 +36613,15 @@
         <v>38614323.37883217</v>
       </c>
       <c r="H978" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr"/>
+      <c r="K978" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -34526,7 +36654,11 @@
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr"/>
+      <c r="K979" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -34559,7 +36691,11 @@
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr"/>
+      <c r="K980" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -34592,7 +36728,11 @@
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr"/>
+      <c r="K981" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -34621,11 +36761,15 @@
         <v>38824708.49403217</v>
       </c>
       <c r="H982" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr"/>
+      <c r="K982" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -34658,7 +36802,11 @@
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr"/>
+      <c r="K983" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -34691,7 +36839,11 @@
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr"/>
+      <c r="K984" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -34724,7 +36876,11 @@
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr"/>
+      <c r="K985" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -34753,11 +36909,15 @@
         <v>40754659.65095472</v>
       </c>
       <c r="H986" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr"/>
+      <c r="K986" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -34790,7 +36950,11 @@
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr"/>
+      <c r="K987" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -34823,7 +36987,11 @@
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr"/>
+      <c r="K988" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -34856,7 +37024,11 @@
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr"/>
+      <c r="K989" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -34889,7 +37061,11 @@
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr"/>
+      <c r="K990" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -34918,14 +37094,16 @@
         <v>40100146.82695473</v>
       </c>
       <c r="H991" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr"/>
-      <c r="L991" t="n">
-        <v>1</v>
-      </c>
+      <c r="K991" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L991" t="inlineStr"/>
       <c r="M991" t="inlineStr"/>
     </row>
     <row r="992">
@@ -34951,7 +37129,7 @@
         <v>39588716.88005473</v>
       </c>
       <c r="H992" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -34984,7 +37162,7 @@
         <v>39588716.88005473</v>
       </c>
       <c r="H993" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -35017,7 +37195,7 @@
         <v>39588716.88005473</v>
       </c>
       <c r="H994" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
@@ -35050,7 +37228,7 @@
         <v>39588716.88005473</v>
       </c>
       <c r="H995" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -35083,7 +37261,7 @@
         <v>39285808.98475473</v>
       </c>
       <c r="H996" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -35116,7 +37294,7 @@
         <v>38461223.28605472</v>
       </c>
       <c r="H997" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -35149,7 +37327,7 @@
         <v>38921383.06166963</v>
       </c>
       <c r="H998" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -35182,7 +37360,7 @@
         <v>39241630.30416963</v>
       </c>
       <c r="H999" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -35215,7 +37393,7 @@
         <v>39241630.30416963</v>
       </c>
       <c r="H1000" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -35248,7 +37426,7 @@
         <v>39241630.30416963</v>
       </c>
       <c r="H1001" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -35281,7 +37459,7 @@
         <v>40604799.30696964</v>
       </c>
       <c r="H1002" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -35314,7 +37492,7 @@
         <v>39822675.54866964</v>
       </c>
       <c r="H1003" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
@@ -35347,7 +37525,7 @@
         <v>40627564.70866963</v>
       </c>
       <c r="H1004" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
@@ -35380,7 +37558,7 @@
         <v>41307190.74556963</v>
       </c>
       <c r="H1005" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
@@ -35413,7 +37591,7 @@
         <v>43379336.20856963</v>
       </c>
       <c r="H1006" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
@@ -35446,7 +37624,7 @@
         <v>43195851.82326963</v>
       </c>
       <c r="H1007" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
@@ -35479,7 +37657,7 @@
         <v>44334811.75226963</v>
       </c>
       <c r="H1008" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
@@ -35512,7 +37690,7 @@
         <v>44733149.69316962</v>
       </c>
       <c r="H1009" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -35545,7 +37723,7 @@
         <v>46630633.34786963</v>
       </c>
       <c r="H1010" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
@@ -35578,7 +37756,7 @@
         <v>56117394.32256962</v>
       </c>
       <c r="H1011" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -35611,7 +37789,7 @@
         <v>54995278.71257652</v>
       </c>
       <c r="H1012" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -35644,7 +37822,7 @@
         <v>56137524.77607653</v>
       </c>
       <c r="H1013" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
@@ -35677,7 +37855,7 @@
         <v>55316878.10755537</v>
       </c>
       <c r="H1014" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
@@ -35710,7 +37888,7 @@
         <v>55316878.10755537</v>
       </c>
       <c r="H1015" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
@@ -35743,7 +37921,7 @@
         <v>55572237.15135537</v>
       </c>
       <c r="H1016" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
@@ -35776,7 +37954,7 @@
         <v>56663067.35721767</v>
       </c>
       <c r="H1017" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
@@ -35809,7 +37987,7 @@
         <v>58304103.81881767</v>
       </c>
       <c r="H1018" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
@@ -35842,7 +38020,7 @@
         <v>57604982.86051767</v>
       </c>
       <c r="H1019" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
@@ -35875,7 +38053,7 @@
         <v>56308046.11528616</v>
       </c>
       <c r="H1020" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
@@ -35908,7 +38086,7 @@
         <v>56584389.29998616</v>
       </c>
       <c r="H1021" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
@@ -35941,7 +38119,7 @@
         <v>56584389.29998616</v>
       </c>
       <c r="H1022" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
@@ -35974,7 +38152,7 @@
         <v>56584389.29998616</v>
       </c>
       <c r="H1023" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
@@ -36007,7 +38185,7 @@
         <v>56756941.71909337</v>
       </c>
       <c r="H1024" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
@@ -36040,7 +38218,7 @@
         <v>56657595.33629338</v>
       </c>
       <c r="H1025" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
@@ -36073,7 +38251,7 @@
         <v>57400293.05630194</v>
       </c>
       <c r="H1026" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
@@ -36106,7 +38284,7 @@
         <v>64245168.20300194</v>
       </c>
       <c r="H1027" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -36139,7 +38317,7 @@
         <v>61839865.53790194</v>
       </c>
       <c r="H1028" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -36172,7 +38350,7 @@
         <v>61143551.27820194</v>
       </c>
       <c r="H1029" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
@@ -36205,7 +38383,7 @@
         <v>60970726.92190194</v>
       </c>
       <c r="H1030" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -36238,7 +38416,7 @@
         <v>61202314.60120194</v>
       </c>
       <c r="H1031" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
@@ -36271,7 +38449,7 @@
         <v>62247918.04710194</v>
       </c>
       <c r="H1032" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -36304,7 +38482,7 @@
         <v>61162770.40250195</v>
       </c>
       <c r="H1033" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
@@ -36337,7 +38515,7 @@
         <v>60549902.70220195</v>
       </c>
       <c r="H1034" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
@@ -36370,7 +38548,7 @@
         <v>60549902.70220195</v>
       </c>
       <c r="H1035" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
@@ -36403,7 +38581,7 @@
         <v>59232618.88580195</v>
       </c>
       <c r="H1036" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -36436,7 +38614,7 @@
         <v>59409012.42560195</v>
       </c>
       <c r="H1037" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
@@ -36469,7 +38647,7 @@
         <v>58952113.42300195</v>
       </c>
       <c r="H1038" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -36832,7 +39010,7 @@
         <v>56653541.84475681</v>
       </c>
       <c r="H1049" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
@@ -36964,7 +39142,7 @@
         <v>55061160.0802568</v>
       </c>
       <c r="H1053" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
@@ -36997,7 +39175,7 @@
         <v>55679752.10335681</v>
       </c>
       <c r="H1054" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
@@ -37030,7 +39208,7 @@
         <v>56141717.11605681</v>
       </c>
       <c r="H1055" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
@@ -37129,7 +39307,7 @@
         <v>56217379.27255681</v>
       </c>
       <c r="H1058" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
@@ -37261,7 +39439,7 @@
         <v>56002606.97602155</v>
       </c>
       <c r="H1062" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
@@ -37789,7 +39967,7 @@
         <v>57114084.9123508</v>
       </c>
       <c r="H1078" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
@@ -37888,7 +40066,7 @@
         <v>56530926.73751113</v>
       </c>
       <c r="H1081" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
@@ -37921,7 +40099,7 @@
         <v>56521476.43111113</v>
       </c>
       <c r="H1082" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
@@ -37954,7 +40132,7 @@
         <v>56294176.23391113</v>
       </c>
       <c r="H1083" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
@@ -37987,7 +40165,7 @@
         <v>56294176.23391113</v>
       </c>
       <c r="H1084" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
@@ -38020,7 +40198,7 @@
         <v>56294176.23391113</v>
       </c>
       <c r="H1085" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
@@ -38053,7 +40231,7 @@
         <v>56294176.23391113</v>
       </c>
       <c r="H1086" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="inlineStr"/>
@@ -38086,7 +40264,7 @@
         <v>55891150.23391113</v>
       </c>
       <c r="H1087" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
@@ -38119,7 +40297,7 @@
         <v>55969100.18611113</v>
       </c>
       <c r="H1088" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1088" t="inlineStr"/>
       <c r="J1088" t="inlineStr"/>
@@ -38152,7 +40330,7 @@
         <v>56087544.01967435</v>
       </c>
       <c r="H1089" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1089" t="inlineStr"/>
       <c r="J1089" t="inlineStr"/>
@@ -38185,7 +40363,7 @@
         <v>56040287.61237435</v>
       </c>
       <c r="H1090" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1090" t="inlineStr"/>
       <c r="J1090" t="inlineStr"/>
@@ -38218,7 +40396,7 @@
         <v>55955347.62977435</v>
       </c>
       <c r="H1091" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1091" t="inlineStr"/>
       <c r="J1091" t="inlineStr"/>
@@ -38251,7 +40429,7 @@
         <v>55955347.62977435</v>
       </c>
       <c r="H1092" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1092" t="inlineStr"/>
       <c r="J1092" t="inlineStr"/>
@@ -38284,7 +40462,7 @@
         <v>55955347.62977435</v>
       </c>
       <c r="H1093" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="inlineStr"/>
@@ -38317,7 +40495,7 @@
         <v>56438123.87017435</v>
       </c>
       <c r="H1094" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1094" t="inlineStr"/>
       <c r="J1094" t="inlineStr"/>
@@ -38350,7 +40528,7 @@
         <v>56373920.42347435</v>
       </c>
       <c r="H1095" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1095" t="inlineStr"/>
       <c r="J1095" t="inlineStr"/>
@@ -38383,7 +40561,7 @@
         <v>56373920.42347435</v>
       </c>
       <c r="H1096" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1096" t="inlineStr"/>
       <c r="J1096" t="inlineStr"/>
@@ -38416,7 +40594,7 @@
         <v>55651369.97807435</v>
       </c>
       <c r="H1097" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="inlineStr"/>
@@ -38449,7 +40627,7 @@
         <v>55874355.85167435</v>
       </c>
       <c r="H1098" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="inlineStr"/>
@@ -38482,7 +40660,7 @@
         <v>55741934.95347435</v>
       </c>
       <c r="H1099" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="inlineStr"/>
@@ -38515,7 +40693,7 @@
         <v>55671794.18347435</v>
       </c>
       <c r="H1100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="inlineStr"/>
@@ -38548,7 +40726,7 @@
         <v>55046424.87497435</v>
       </c>
       <c r="H1101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="inlineStr"/>
@@ -38581,7 +40759,7 @@
         <v>55046424.87497435</v>
       </c>
       <c r="H1102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1102" t="inlineStr"/>
       <c r="J1102" t="inlineStr"/>
@@ -38614,7 +40792,7 @@
         <v>55046424.87497435</v>
       </c>
       <c r="H1103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1103" t="inlineStr"/>
       <c r="J1103" t="inlineStr"/>
@@ -38647,7 +40825,7 @@
         <v>55384284.13067435</v>
       </c>
       <c r="H1104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1104" t="inlineStr"/>
       <c r="J1104" t="inlineStr"/>
@@ -38713,7 +40891,7 @@
         <v>57018172.91297435</v>
       </c>
       <c r="H1106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1106" t="inlineStr"/>
       <c r="J1106" t="inlineStr"/>
@@ -38746,7 +40924,7 @@
         <v>56416753.75707435</v>
       </c>
       <c r="H1107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1107" t="inlineStr"/>
       <c r="J1107" t="inlineStr"/>
@@ -39043,7 +41221,7 @@
         <v>56134278.61257435</v>
       </c>
       <c r="H1116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1116" t="inlineStr"/>
       <c r="J1116" t="inlineStr"/>
@@ -39076,7 +41254,7 @@
         <v>54681750.19837435</v>
       </c>
       <c r="H1117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1117" t="inlineStr"/>
       <c r="J1117" t="inlineStr"/>
@@ -39109,7 +41287,7 @@
         <v>55428030.81357434</v>
       </c>
       <c r="H1118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1118" t="inlineStr"/>
       <c r="J1118" t="inlineStr"/>
@@ -39142,7 +41320,7 @@
         <v>57085839.62187435</v>
       </c>
       <c r="H1119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1119" t="inlineStr"/>
       <c r="J1119" t="inlineStr"/>
@@ -39175,7 +41353,7 @@
         <v>57085839.62187435</v>
       </c>
       <c r="H1120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1120" t="inlineStr"/>
       <c r="J1120" t="inlineStr"/>
@@ -39208,7 +41386,7 @@
         <v>57887957.01867434</v>
       </c>
       <c r="H1121" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1121" t="inlineStr"/>
       <c r="J1121" t="inlineStr"/>
@@ -39241,7 +41419,7 @@
         <v>58293546.49117434</v>
       </c>
       <c r="H1122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1122" t="inlineStr"/>
       <c r="J1122" t="inlineStr"/>
@@ -39274,7 +41452,7 @@
         <v>58481636.46907434</v>
       </c>
       <c r="H1123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1123" t="inlineStr"/>
       <c r="J1123" t="inlineStr"/>
@@ -39307,7 +41485,7 @@
         <v>58310585.39177434</v>
       </c>
       <c r="H1124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1124" t="inlineStr"/>
       <c r="J1124" t="inlineStr"/>
@@ -39340,7 +41518,7 @@
         <v>58663055.37135674</v>
       </c>
       <c r="H1125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1125" t="inlineStr"/>
       <c r="J1125" t="inlineStr"/>
@@ -39373,7 +41551,7 @@
         <v>58860540.41902357</v>
       </c>
       <c r="H1126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1126" t="inlineStr"/>
       <c r="J1126" t="inlineStr"/>
@@ -39406,7 +41584,7 @@
         <v>58648578.93942358</v>
       </c>
       <c r="H1127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1127" t="inlineStr"/>
       <c r="J1127" t="inlineStr"/>
@@ -39439,7 +41617,7 @@
         <v>58922897.23442358</v>
       </c>
       <c r="H1128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1128" t="inlineStr"/>
       <c r="J1128" t="inlineStr"/>
@@ -39472,7 +41650,7 @@
         <v>58834279.68582357</v>
       </c>
       <c r="H1129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1129" t="inlineStr"/>
       <c r="J1129" t="inlineStr"/>
@@ -39505,7 +41683,7 @@
         <v>58663549.90232357</v>
       </c>
       <c r="H1130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1130" t="inlineStr"/>
       <c r="J1130" t="inlineStr"/>
@@ -39538,7 +41716,7 @@
         <v>58791464.26272357</v>
       </c>
       <c r="H1131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1131" t="inlineStr"/>
       <c r="J1131" t="inlineStr"/>
@@ -39571,7 +41749,7 @@
         <v>58423012.96882357</v>
       </c>
       <c r="H1132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1132" t="inlineStr"/>
       <c r="J1132" t="inlineStr"/>
@@ -39604,7 +41782,7 @@
         <v>58439018.00972357</v>
       </c>
       <c r="H1133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1133" t="inlineStr"/>
       <c r="J1133" t="inlineStr"/>
@@ -39637,7 +41815,7 @@
         <v>58439943.52402358</v>
       </c>
       <c r="H1134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1134" t="inlineStr"/>
       <c r="J1134" t="inlineStr"/>
@@ -39670,7 +41848,7 @@
         <v>58439943.52402358</v>
       </c>
       <c r="H1135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1135" t="inlineStr"/>
       <c r="J1135" t="inlineStr"/>
@@ -39703,7 +41881,7 @@
         <v>58562935.81976359</v>
       </c>
       <c r="H1136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1136" t="inlineStr"/>
       <c r="J1136" t="inlineStr"/>
@@ -39736,7 +41914,7 @@
         <v>58562935.81976359</v>
       </c>
       <c r="H1137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1137" t="inlineStr"/>
       <c r="J1137" t="inlineStr"/>
@@ -39769,7 +41947,7 @@
         <v>58557074.83396359</v>
       </c>
       <c r="H1138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1138" t="inlineStr"/>
       <c r="J1138" t="inlineStr"/>
@@ -39802,7 +41980,7 @@
         <v>58560277.30426358</v>
       </c>
       <c r="H1139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1139" t="inlineStr"/>
       <c r="J1139" t="inlineStr"/>
@@ -39835,7 +42013,7 @@
         <v>58525289.78086358</v>
       </c>
       <c r="H1140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1140" t="inlineStr"/>
       <c r="J1140" t="inlineStr"/>
@@ -39868,7 +42046,7 @@
         <v>58536777.42306358</v>
       </c>
       <c r="H1141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1141" t="inlineStr"/>
       <c r="J1141" t="inlineStr"/>
@@ -39901,7 +42079,7 @@
         <v>58470284.65597593</v>
       </c>
       <c r="H1142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1142" t="inlineStr"/>
       <c r="J1142" t="inlineStr"/>
@@ -39934,7 +42112,7 @@
         <v>58434370.33197593</v>
       </c>
       <c r="H1143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1143" t="inlineStr"/>
       <c r="J1143" t="inlineStr"/>
@@ -39967,7 +42145,7 @@
         <v>58460958.19707593</v>
       </c>
       <c r="H1144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1144" t="inlineStr"/>
       <c r="J1144" t="inlineStr"/>
@@ -40000,7 +42178,7 @@
         <v>58460958.19707593</v>
       </c>
       <c r="H1145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1145" t="inlineStr"/>
       <c r="J1145" t="inlineStr"/>
@@ -40033,7 +42211,7 @@
         <v>58044471.45177592</v>
       </c>
       <c r="H1146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1146" t="inlineStr"/>
       <c r="J1146" t="inlineStr"/>
@@ -40066,7 +42244,7 @@
         <v>58004471.45177592</v>
       </c>
       <c r="H1147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1147" t="inlineStr"/>
       <c r="J1147" t="inlineStr"/>
@@ -40099,7 +42277,7 @@
         <v>58144450.05897592</v>
       </c>
       <c r="H1148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1148" t="inlineStr"/>
       <c r="J1148" t="inlineStr"/>
@@ -40132,7 +42310,7 @@
         <v>58218091.38727592</v>
       </c>
       <c r="H1149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1149" t="inlineStr"/>
       <c r="J1149" t="inlineStr"/>
@@ -40264,7 +42442,7 @@
         <v>58114024.68507592</v>
       </c>
       <c r="H1153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1153" t="inlineStr"/>
       <c r="J1153" t="inlineStr"/>
@@ -40396,7 +42574,7 @@
         <v>57573372.78287593</v>
       </c>
       <c r="H1157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1157" t="inlineStr"/>
       <c r="J1157" t="inlineStr"/>
@@ -40429,7 +42607,7 @@
         <v>57320117.03137593</v>
       </c>
       <c r="H1158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1158" t="inlineStr"/>
       <c r="J1158" t="inlineStr"/>
@@ -40462,7 +42640,7 @@
         <v>57320209.34577593</v>
       </c>
       <c r="H1159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1159" t="inlineStr"/>
       <c r="J1159" t="inlineStr"/>
@@ -40495,7 +42673,7 @@
         <v>56980284.19767593</v>
       </c>
       <c r="H1160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1160" t="inlineStr"/>
       <c r="J1160" t="inlineStr"/>
@@ -40528,7 +42706,7 @@
         <v>58758980.87127593</v>
       </c>
       <c r="H1161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1161" t="inlineStr"/>
       <c r="J1161" t="inlineStr"/>
@@ -40561,7 +42739,7 @@
         <v>58758980.87127593</v>
       </c>
       <c r="H1162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1162" t="inlineStr"/>
       <c r="J1162" t="inlineStr"/>
@@ -40594,7 +42772,7 @@
         <v>58666336.15667593</v>
       </c>
       <c r="H1163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1163" t="inlineStr"/>
       <c r="J1163" t="inlineStr"/>
@@ -40627,7 +42805,7 @@
         <v>58567773.85907593</v>
       </c>
       <c r="H1164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1164" t="inlineStr"/>
       <c r="J1164" t="inlineStr"/>
@@ -40693,7 +42871,7 @@
         <v>58811476.53127594</v>
       </c>
       <c r="H1166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1166" t="inlineStr"/>
       <c r="J1166" t="inlineStr"/>
@@ -40726,7 +42904,7 @@
         <v>58785771.74287593</v>
       </c>
       <c r="H1167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1167" t="inlineStr"/>
       <c r="J1167" t="inlineStr"/>
@@ -40759,7 +42937,7 @@
         <v>58841569.32607593</v>
       </c>
       <c r="H1168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1168" t="inlineStr"/>
       <c r="J1168" t="inlineStr"/>
@@ -40792,7 +42970,7 @@
         <v>58841569.32607593</v>
       </c>
       <c r="H1169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1169" t="inlineStr"/>
       <c r="J1169" t="inlineStr"/>
@@ -40825,7 +43003,7 @@
         <v>59041144.92257594</v>
       </c>
       <c r="H1170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1170" t="inlineStr"/>
       <c r="J1170" t="inlineStr"/>
@@ -40858,7 +43036,7 @@
         <v>59041144.92257594</v>
       </c>
       <c r="H1171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1171" t="inlineStr"/>
       <c r="J1171" t="inlineStr"/>
@@ -40891,7 +43069,7 @@
         <v>58985330.02157594</v>
       </c>
       <c r="H1172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1172" t="inlineStr"/>
       <c r="J1172" t="inlineStr"/>
@@ -40924,7 +43102,7 @@
         <v>59170138.33767594</v>
       </c>
       <c r="H1173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1173" t="inlineStr"/>
       <c r="J1173" t="inlineStr"/>
@@ -40957,7 +43135,7 @@
         <v>59170138.33767594</v>
       </c>
       <c r="H1174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1174" t="inlineStr"/>
       <c r="J1174" t="inlineStr"/>
@@ -40990,7 +43168,7 @@
         <v>58945471.02707594</v>
       </c>
       <c r="H1175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1175" t="inlineStr"/>
       <c r="J1175" t="inlineStr"/>
@@ -41188,7 +43366,7 @@
         <v>59589558.28457594</v>
       </c>
       <c r="H1181" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1181" t="inlineStr"/>
       <c r="J1181" t="inlineStr"/>
@@ -41221,7 +43399,7 @@
         <v>59489558.28457594</v>
       </c>
       <c r="H1182" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1182" t="inlineStr"/>
       <c r="J1182" t="inlineStr"/>
@@ -41254,7 +43432,7 @@
         <v>59533969.80272644</v>
       </c>
       <c r="H1183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1183" t="inlineStr"/>
       <c r="J1183" t="inlineStr"/>
@@ -41287,7 +43465,7 @@
         <v>59462412.54792644</v>
       </c>
       <c r="H1184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1184" t="inlineStr"/>
       <c r="J1184" t="inlineStr"/>
@@ -41320,7 +43498,7 @@
         <v>59464318.04002644</v>
       </c>
       <c r="H1185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1185" t="inlineStr"/>
       <c r="J1185" t="inlineStr"/>
@@ -41353,7 +43531,7 @@
         <v>59464247.04002644</v>
       </c>
       <c r="H1186" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1186" t="inlineStr"/>
       <c r="J1186" t="inlineStr"/>
@@ -41386,7 +43564,7 @@
         <v>59485069.06485443</v>
       </c>
       <c r="H1187" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1187" t="inlineStr"/>
       <c r="J1187" t="inlineStr"/>
@@ -41419,7 +43597,7 @@
         <v>59485069.06485443</v>
       </c>
       <c r="H1188" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1188" t="inlineStr"/>
       <c r="J1188" t="inlineStr"/>
@@ -41452,7 +43630,7 @@
         <v>59481058.35175443</v>
       </c>
       <c r="H1189" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1189" t="inlineStr"/>
       <c r="J1189" t="inlineStr"/>
@@ -41485,7 +43663,7 @@
         <v>59494839.43785442</v>
       </c>
       <c r="H1190" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1190" t="inlineStr"/>
       <c r="J1190" t="inlineStr"/>
@@ -41518,7 +43696,7 @@
         <v>59494839.43785442</v>
       </c>
       <c r="H1191" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1191" t="inlineStr"/>
       <c r="J1191" t="inlineStr"/>
@@ -41551,7 +43729,7 @@
         <v>59489903.39335442</v>
       </c>
       <c r="H1192" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1192" t="inlineStr"/>
       <c r="J1192" t="inlineStr"/>
@@ -41584,7 +43762,7 @@
         <v>59491745.47326019</v>
       </c>
       <c r="H1193" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1193" t="inlineStr"/>
       <c r="J1193" t="inlineStr"/>
@@ -41617,7 +43795,7 @@
         <v>59394692.65866019</v>
       </c>
       <c r="H1194" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1194" t="inlineStr"/>
       <c r="J1194" t="inlineStr"/>
@@ -41650,7 +43828,7 @@
         <v>58206491.97336019</v>
       </c>
       <c r="H1195" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1195" t="inlineStr"/>
       <c r="J1195" t="inlineStr"/>
@@ -41683,7 +43861,7 @@
         <v>58206491.97336019</v>
       </c>
       <c r="H1196" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1196" t="inlineStr"/>
       <c r="J1196" t="inlineStr"/>
@@ -41716,7 +43894,7 @@
         <v>57978543.18196019</v>
       </c>
       <c r="H1197" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1197" t="inlineStr"/>
       <c r="J1197" t="inlineStr"/>
@@ -41749,7 +43927,7 @@
         <v>57694430.57176019</v>
       </c>
       <c r="H1198" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1198" t="inlineStr"/>
       <c r="J1198" t="inlineStr"/>
@@ -41782,7 +43960,7 @@
         <v>57679649.41256019</v>
       </c>
       <c r="H1199" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1199" t="inlineStr"/>
       <c r="J1199" t="inlineStr"/>
@@ -41815,7 +43993,7 @@
         <v>57839801.06586019</v>
       </c>
       <c r="H1200" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1200" t="inlineStr"/>
       <c r="J1200" t="inlineStr"/>
@@ -41848,7 +44026,7 @@
         <v>58121083.28586019</v>
       </c>
       <c r="H1201" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1201" t="inlineStr"/>
       <c r="J1201" t="inlineStr"/>
@@ -41881,7 +44059,7 @@
         <v>58010748.91966019</v>
       </c>
       <c r="H1202" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1202" t="inlineStr"/>
       <c r="J1202" t="inlineStr"/>
@@ -41947,7 +44125,7 @@
         <v>58143316.59236018</v>
       </c>
       <c r="H1204" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1204" t="inlineStr"/>
       <c r="J1204" t="inlineStr"/>
@@ -41980,7 +44158,7 @@
         <v>58196960.49236018</v>
       </c>
       <c r="H1205" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1205" t="inlineStr"/>
       <c r="J1205" t="inlineStr"/>
@@ -42013,7 +44191,7 @@
         <v>58684450.67995442</v>
       </c>
       <c r="H1206" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1206" t="inlineStr"/>
       <c r="J1206" t="inlineStr"/>
@@ -42046,7 +44224,7 @@
         <v>58684450.67995442</v>
       </c>
       <c r="H1207" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1207" t="inlineStr"/>
       <c r="J1207" t="inlineStr"/>
@@ -42079,7 +44257,7 @@
         <v>58667716.06539045</v>
       </c>
       <c r="H1208" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1208" t="inlineStr"/>
       <c r="J1208" t="inlineStr"/>
@@ -42112,7 +44290,7 @@
         <v>58043770.12179045</v>
       </c>
       <c r="H1209" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1209" t="inlineStr"/>
       <c r="J1209" t="inlineStr"/>
@@ -42145,7 +44323,7 @@
         <v>57884030.21894298</v>
       </c>
       <c r="H1210" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1210" t="inlineStr"/>
       <c r="J1210" t="inlineStr"/>
@@ -42178,7 +44356,7 @@
         <v>57782624.70444299</v>
       </c>
       <c r="H1211" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1211" t="inlineStr"/>
       <c r="J1211" t="inlineStr"/>
@@ -42211,7 +44389,7 @@
         <v>57804627.27452502</v>
       </c>
       <c r="H1212" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1212" t="inlineStr"/>
       <c r="J1212" t="inlineStr"/>
@@ -42244,7 +44422,7 @@
         <v>57619953.51352502</v>
       </c>
       <c r="H1213" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1213" t="inlineStr"/>
       <c r="J1213" t="inlineStr"/>
@@ -42310,7 +44488,7 @@
         <v>57872044.59202503</v>
       </c>
       <c r="H1215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1215" t="inlineStr"/>
       <c r="J1215" t="inlineStr"/>
@@ -42343,7 +44521,7 @@
         <v>57872044.59202503</v>
       </c>
       <c r="H1216" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1216" t="inlineStr"/>
       <c r="J1216" t="inlineStr"/>
@@ -42376,7 +44554,7 @@
         <v>57761780.14062503</v>
       </c>
       <c r="H1217" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1217" t="inlineStr"/>
       <c r="J1217" t="inlineStr"/>
@@ -42409,7 +44587,7 @@
         <v>57159813.57372503</v>
       </c>
       <c r="H1218" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1218" t="inlineStr"/>
       <c r="J1218" t="inlineStr"/>
@@ -42442,7 +44620,7 @@
         <v>57156847.75102503</v>
       </c>
       <c r="H1219" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1219" t="inlineStr"/>
       <c r="J1219" t="inlineStr"/>
@@ -42475,7 +44653,7 @@
         <v>57216315.82152503</v>
       </c>
       <c r="H1220" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1220" t="inlineStr"/>
       <c r="J1220" t="inlineStr"/>
@@ -42508,7 +44686,7 @@
         <v>57129948.85137382</v>
       </c>
       <c r="H1221" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1221" t="inlineStr"/>
       <c r="J1221" t="inlineStr"/>
@@ -42541,7 +44719,7 @@
         <v>57051983.22527382</v>
       </c>
       <c r="H1222" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1222" t="inlineStr"/>
       <c r="J1222" t="inlineStr"/>
@@ -42574,7 +44752,7 @@
         <v>56089223.65381001</v>
       </c>
       <c r="H1223" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1223" t="inlineStr"/>
       <c r="J1223" t="inlineStr"/>
@@ -42607,7 +44785,7 @@
         <v>56089223.65381001</v>
       </c>
       <c r="H1224" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1224" t="inlineStr"/>
       <c r="J1224" t="inlineStr"/>
@@ -42640,7 +44818,7 @@
         <v>55936855.41441001</v>
       </c>
       <c r="H1225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1225" t="inlineStr"/>
       <c r="J1225" t="inlineStr"/>
@@ -42673,7 +44851,7 @@
         <v>55612908.63481001</v>
       </c>
       <c r="H1226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1226" t="inlineStr"/>
       <c r="J1226" t="inlineStr"/>
@@ -42706,7 +44884,7 @@
         <v>54820652.45151</v>
       </c>
       <c r="H1227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1227" t="inlineStr"/>
       <c r="J1227" t="inlineStr"/>
@@ -42739,7 +44917,7 @@
         <v>54708024.30571</v>
       </c>
       <c r="H1228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1228" t="inlineStr"/>
       <c r="J1228" t="inlineStr"/>
@@ -42772,7 +44950,7 @@
         <v>55081402.39191</v>
       </c>
       <c r="H1229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1229" t="inlineStr"/>
       <c r="J1229" t="inlineStr"/>
@@ -42805,7 +44983,7 @@
         <v>55038245.55528813</v>
       </c>
       <c r="H1230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1230" t="inlineStr"/>
       <c r="J1230" t="inlineStr"/>
@@ -42838,7 +45016,7 @@
         <v>55752828.51408813</v>
       </c>
       <c r="H1231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1231" t="inlineStr"/>
       <c r="J1231" t="inlineStr"/>
@@ -42871,7 +45049,7 @@
         <v>55987593.55347499</v>
       </c>
       <c r="H1232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1232" t="inlineStr"/>
       <c r="J1232" t="inlineStr"/>
@@ -42904,7 +45082,7 @@
         <v>55445899.694975</v>
       </c>
       <c r="H1233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1233" t="inlineStr"/>
       <c r="J1233" t="inlineStr"/>
@@ -42937,7 +45115,7 @@
         <v>55244126.60897499</v>
       </c>
       <c r="H1234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1234" t="inlineStr"/>
       <c r="J1234" t="inlineStr"/>
@@ -42970,7 +45148,7 @@
         <v>55879849.60577499</v>
       </c>
       <c r="H1235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1235" t="inlineStr"/>
       <c r="J1235" t="inlineStr"/>
@@ -43003,7 +45181,7 @@
         <v>55879849.60577499</v>
       </c>
       <c r="H1236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1236" t="inlineStr"/>
       <c r="J1236" t="inlineStr"/>
@@ -43036,7 +45214,7 @@
         <v>55602637.85967499</v>
       </c>
       <c r="H1237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1237" t="inlineStr"/>
       <c r="J1237" t="inlineStr"/>
@@ -43069,7 +45247,7 @@
         <v>57262848.48077499</v>
       </c>
       <c r="H1238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1238" t="inlineStr"/>
       <c r="J1238" t="inlineStr"/>
@@ -43102,7 +45280,7 @@
         <v>57262848.48077499</v>
       </c>
       <c r="H1239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1239" t="inlineStr"/>
       <c r="J1239" t="inlineStr"/>
@@ -43135,7 +45313,7 @@
         <v>57629008.86507499</v>
       </c>
       <c r="H1240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1240" t="inlineStr"/>
       <c r="J1240" t="inlineStr"/>
@@ -43146,6 +45324,6 @@
       <c r="M1240" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest TRX.xlsx
+++ b/BackTest/2020-01-16 BackTest TRX.xlsx
@@ -649,17 +649,11 @@
         <v>-1400220.141238691</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>17.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -688,17 +682,11 @@
         <v>-1413480.907810921</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>17.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -735,7 +723,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -2014,11 +2002,9 @@
         <v>97308.62825611947</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>17.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
@@ -2832,16 +2818,18 @@
         <v>10150015.79519411</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
       <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
@@ -2867,11 +2855,15 @@
         <v>9582381.455794109</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2900,11 +2892,15 @@
         <v>9865682.55179411</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2933,11 +2929,15 @@
         <v>9858952.55179411</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2966,11 +2966,15 @@
         <v>8884010.27329411</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3003,7 +3007,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3036,7 +3044,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3069,7 +3081,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3102,7 +3118,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3135,7 +3155,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3168,7 +3192,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3201,7 +3229,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3234,7 +3266,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3267,7 +3303,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3300,7 +3340,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3329,11 +3373,15 @@
         <v>9914802.966902751</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3362,11 +3410,15 @@
         <v>10015728.31380275</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3395,11 +3447,15 @@
         <v>10015728.31380275</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3428,11 +3484,15 @@
         <v>9650269.380702751</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3461,11 +3521,15 @@
         <v>9686753.849802751</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3494,11 +3558,15 @@
         <v>9686753.849802751</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3527,11 +3595,15 @@
         <v>9794753.849802751</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3560,11 +3632,15 @@
         <v>9881091.241502751</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3593,11 +3669,15 @@
         <v>10301857.34400275</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3626,11 +3706,15 @@
         <v>10749768.22830275</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3659,11 +3743,15 @@
         <v>10671475.11250275</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3692,11 +3780,15 @@
         <v>10706719.07240275</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3725,11 +3817,15 @@
         <v>10592311.60364985</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3758,11 +3854,15 @@
         <v>10467435.32744985</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3791,11 +3891,15 @@
         <v>10467435.32744985</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3824,11 +3928,15 @@
         <v>11045788.72879695</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3857,11 +3965,15 @@
         <v>11934886.12099695</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3890,11 +4002,15 @@
         <v>13447408.08439695</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3923,11 +4039,15 @@
         <v>17443484.56479695</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3956,11 +4076,15 @@
         <v>18959944.86659695</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3989,11 +4113,15 @@
         <v>18220552.39089695</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4022,11 +4150,15 @@
         <v>19366546.24149695</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4055,11 +4187,15 @@
         <v>19621779.30279695</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4088,11 +4224,15 @@
         <v>23876987.02159695</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4121,11 +4261,15 @@
         <v>23876987.02159695</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4154,11 +4298,15 @@
         <v>24377184.63529695</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4187,11 +4335,15 @@
         <v>24377184.63529695</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4220,11 +4372,15 @@
         <v>23594180.52549695</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4253,11 +4409,15 @@
         <v>22821048.21159695</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4286,11 +4446,15 @@
         <v>22493935.89029695</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4319,11 +4483,15 @@
         <v>21232298.28149695</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4352,11 +4520,15 @@
         <v>21552887.54149695</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4389,7 +4561,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4422,7 +4598,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4451,11 +4631,15 @@
         <v>23319034.68299695</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4488,7 +4672,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4517,11 +4705,15 @@
         <v>22788323.05819695</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4550,11 +4742,15 @@
         <v>22805603.41939695</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4583,11 +4779,15 @@
         <v>22246034.84619695</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4616,11 +4816,15 @@
         <v>22450371.93529695</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4649,11 +4853,15 @@
         <v>23004550.41879695</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4682,11 +4890,15 @@
         <v>23327718.35400728</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4715,11 +4927,15 @@
         <v>23048299.61540728</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4748,11 +4964,15 @@
         <v>23273721.27690728</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4781,11 +5001,15 @@
         <v>23273721.27690728</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4814,11 +5038,15 @@
         <v>23167857.18640728</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4847,11 +5075,15 @@
         <v>23146419.35170728</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4880,11 +5112,15 @@
         <v>23146419.35170728</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4913,11 +5149,15 @@
         <v>23667069.96960727</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4946,11 +5186,15 @@
         <v>23412280.44490727</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4979,11 +5223,15 @@
         <v>23459390.44760728</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5016,7 +5264,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5049,7 +5301,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5082,7 +5338,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5111,11 +5371,15 @@
         <v>22376286.95980728</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5144,11 +5408,15 @@
         <v>22238605.16680728</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5177,11 +5445,15 @@
         <v>22231875.16680728</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5210,11 +5482,15 @@
         <v>22279993.17120728</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5243,11 +5519,15 @@
         <v>22284311.91840728</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5276,11 +5556,15 @@
         <v>22133808.06420727</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5313,7 +5597,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5346,7 +5634,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5375,11 +5667,15 @@
         <v>21765182.90362472</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5408,11 +5704,15 @@
         <v>21786035.32562472</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5445,7 +5745,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5478,7 +5782,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5511,7 +5819,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5544,7 +5856,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5577,7 +5893,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5610,7 +5930,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5643,7 +5967,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5676,7 +6004,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5709,7 +6041,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5742,7 +6078,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5775,7 +6115,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5808,7 +6152,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5841,7 +6189,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5874,7 +6226,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5907,7 +6263,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5940,7 +6300,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5973,7 +6337,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6006,7 +6374,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6039,7 +6411,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6072,7 +6448,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6105,7 +6485,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6138,7 +6522,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6171,7 +6559,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6204,7 +6596,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6237,7 +6633,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6270,7 +6670,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6303,7 +6707,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6336,7 +6744,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6369,7 +6781,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6402,7 +6818,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6435,7 +6855,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6468,7 +6892,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6501,7 +6929,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6534,7 +6966,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6567,7 +7003,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6600,7 +7040,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6633,7 +7077,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6666,7 +7114,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6699,7 +7151,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6732,7 +7188,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6765,7 +7225,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6798,7 +7262,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6831,7 +7299,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6864,7 +7336,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6897,7 +7373,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6930,7 +7410,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6963,7 +7447,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6996,7 +7484,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7029,7 +7521,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7062,7 +7558,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7095,7 +7595,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7128,7 +7632,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7161,7 +7669,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7194,7 +7706,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7227,7 +7743,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7260,7 +7780,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7293,7 +7817,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7326,7 +7854,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7359,7 +7891,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7392,7 +7928,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7425,7 +7965,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7458,7 +8002,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7491,7 +8039,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7524,7 +8076,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7557,7 +8113,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7590,7 +8150,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7623,7 +8187,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7656,7 +8224,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7689,7 +8261,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7722,7 +8298,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7755,7 +8335,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7788,7 +8372,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7821,7 +8409,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7854,7 +8446,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7887,7 +8483,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7920,7 +8520,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7953,7 +8557,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7986,7 +8594,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8019,7 +8631,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8052,7 +8668,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8085,7 +8705,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8118,7 +8742,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8151,7 +8779,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8184,7 +8816,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8217,7 +8853,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8250,7 +8890,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8283,7 +8927,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8316,7 +8964,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8349,7 +9001,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8382,7 +9038,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8415,7 +9075,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8448,7 +9112,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8481,7 +9149,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8514,7 +9186,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8547,7 +9223,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8580,7 +9260,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8613,7 +9297,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8646,7 +9334,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8679,7 +9371,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8712,7 +9408,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8745,7 +9445,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8778,7 +9482,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8811,7 +9519,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8844,7 +9556,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8877,7 +9593,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8910,7 +9630,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8943,7 +9667,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8976,7 +9704,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9009,7 +9741,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9042,7 +9778,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9075,7 +9815,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9108,7 +9852,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9141,7 +9889,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9174,7 +9926,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9207,7 +9963,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9240,7 +10000,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9273,7 +10037,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9306,7 +10074,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9339,7 +10111,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9372,7 +10148,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9405,7 +10185,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9438,7 +10222,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9471,7 +10259,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9504,7 +10296,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9537,7 +10333,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9570,7 +10370,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9603,7 +10407,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9636,7 +10444,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9669,7 +10481,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9702,7 +10518,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9735,7 +10555,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9768,7 +10592,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9801,7 +10629,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9834,7 +10666,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9867,7 +10703,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9900,7 +10740,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9933,7 +10777,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9966,7 +10814,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9999,7 +10851,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10032,7 +10888,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10065,7 +10925,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10098,7 +10962,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10131,7 +10999,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10164,7 +11036,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10197,7 +11073,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10230,7 +11110,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10263,7 +11147,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10296,7 +11184,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10329,7 +11221,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10362,7 +11258,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10395,7 +11295,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10428,7 +11332,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10461,7 +11369,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10494,7 +11406,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10527,7 +11443,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10560,7 +11480,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10593,7 +11517,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10626,7 +11554,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10659,7 +11591,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10692,7 +11628,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10725,7 +11665,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10758,7 +11702,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10791,7 +11739,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10824,7 +11776,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10857,7 +11813,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10890,7 +11850,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10923,7 +11887,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10956,7 +11924,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10989,7 +11961,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11022,7 +11998,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11055,7 +12035,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11088,7 +12072,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11117,11 +12105,15 @@
         <v>21841396.10119058</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11150,11 +12142,15 @@
         <v>22472809.42939058</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11183,11 +12179,15 @@
         <v>22472809.42939058</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11216,11 +12216,15 @@
         <v>22472809.42939058</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11249,11 +12253,15 @@
         <v>22482689.67921063</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11282,11 +12290,15 @@
         <v>23165499.03937304</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11315,11 +12327,15 @@
         <v>23104018.03937304</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11348,11 +12364,15 @@
         <v>23371938.54747304</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11381,11 +12401,15 @@
         <v>23071938.54747304</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11414,11 +12438,15 @@
         <v>23071938.54747304</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11447,11 +12475,15 @@
         <v>23137655.58497304</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11480,11 +12512,15 @@
         <v>23165386.34027305</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11513,11 +12549,15 @@
         <v>23150194.67707305</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11546,11 +12586,15 @@
         <v>19623509.33357305</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11579,11 +12623,15 @@
         <v>19637024.14387305</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11612,11 +12660,15 @@
         <v>19637024.14387305</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11645,11 +12697,15 @@
         <v>19634724.14387305</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11678,11 +12734,15 @@
         <v>19872787.40397305</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11711,11 +12771,15 @@
         <v>19872787.40397305</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11744,11 +12808,15 @@
         <v>19652487.39337305</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11777,11 +12845,15 @@
         <v>19652487.39337305</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11810,11 +12882,15 @@
         <v>19652487.39337305</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11843,11 +12919,15 @@
         <v>19652487.39337305</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11876,11 +12956,15 @@
         <v>19648964.27787305</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11909,11 +12993,15 @@
         <v>19652175.86357305</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11942,11 +13030,15 @@
         <v>19755690.35794708</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11975,11 +13067,15 @@
         <v>21245374.41134708</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12008,11 +13104,15 @@
         <v>21245374.41134708</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12041,11 +13141,15 @@
         <v>21708098.3896866</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12074,11 +13178,15 @@
         <v>21021212.9330866</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12107,11 +13215,15 @@
         <v>20906028.3071866</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12144,7 +13256,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12177,7 +13293,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12210,7 +13330,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12243,7 +13367,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12276,7 +13404,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12309,7 +13441,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12342,7 +13478,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12375,7 +13515,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12408,7 +13552,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12441,7 +13589,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12474,7 +13626,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12507,7 +13663,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12540,7 +13700,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12573,7 +13737,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12606,7 +13774,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12639,7 +13811,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12672,7 +13848,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12705,7 +13885,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12738,7 +13922,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12771,7 +13959,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12804,7 +13996,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12837,7 +14033,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12870,7 +14070,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12903,7 +14107,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12936,7 +14144,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12969,7 +14181,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13002,7 +14218,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13035,7 +14255,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13068,7 +14292,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13101,7 +14329,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13134,7 +14366,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13167,7 +14403,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13200,7 +14440,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13233,7 +14477,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13266,7 +14514,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13299,7 +14551,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13332,7 +14588,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13365,7 +14625,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13398,7 +14662,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13431,7 +14699,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13464,7 +14736,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13497,7 +14773,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13530,7 +14810,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13563,7 +14847,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13596,7 +14884,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13629,7 +14921,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13662,7 +14958,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13695,7 +14995,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13728,7 +15032,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13761,7 +15069,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13794,7 +15106,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13827,7 +15143,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13860,7 +15180,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13893,7 +15217,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13926,7 +15254,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13959,7 +15291,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13992,7 +15328,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14025,7 +15365,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14058,7 +15402,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14091,7 +15439,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14124,7 +15476,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14157,7 +15513,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14190,7 +15550,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14223,7 +15587,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14256,7 +15624,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14289,7 +15661,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14322,7 +15698,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14355,7 +15735,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14388,7 +15772,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14421,7 +15809,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14454,7 +15846,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14487,7 +15883,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14520,7 +15920,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14553,7 +15957,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14582,11 +15990,15 @@
         <v>24538498.04882734</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14619,7 +16031,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14652,7 +16068,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14685,7 +16105,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14718,7 +16142,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14751,7 +16179,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14784,7 +16216,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14817,7 +16253,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14850,7 +16290,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14883,7 +16327,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14916,7 +16364,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14949,7 +16401,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14982,7 +16438,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15015,7 +16475,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15048,7 +16512,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15081,7 +16549,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15114,7 +16586,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15147,7 +16623,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15180,7 +16660,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15209,11 +16693,15 @@
         <v>27766591.17648105</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15242,11 +16730,15 @@
         <v>27766591.17648105</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15275,11 +16767,15 @@
         <v>28061137.10793944</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15308,11 +16804,15 @@
         <v>28021904.07513944</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15341,11 +16841,15 @@
         <v>28021904.07513944</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15378,7 +16882,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15407,11 +16915,15 @@
         <v>29382591.27413058</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15440,11 +16952,15 @@
         <v>29600928.00433058</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15473,11 +16989,15 @@
         <v>29811215.14363058</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15506,11 +17026,15 @@
         <v>31452355.67653058</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15539,11 +17063,15 @@
         <v>32074471.82509653</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15572,11 +17100,15 @@
         <v>32074471.82509653</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15605,11 +17137,15 @@
         <v>32681740.36118086</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15638,11 +17174,15 @@
         <v>31979245.68928086</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15671,11 +17211,15 @@
         <v>31659992.69239363</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15704,11 +17248,15 @@
         <v>32788699.5964064</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15737,11 +17285,15 @@
         <v>32570685.17045254</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15770,11 +17322,15 @@
         <v>32365231.38015254</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15803,11 +17359,15 @@
         <v>33763301.95155254</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15836,11 +17396,15 @@
         <v>34638335.40590446</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15869,11 +17433,15 @@
         <v>37133925.61760446</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15902,11 +17470,15 @@
         <v>40107602.47130445</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15935,11 +17507,15 @@
         <v>41130455.07460445</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15968,11 +17544,15 @@
         <v>43260146.25695001</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16001,11 +17581,15 @@
         <v>42100077.71465001</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16034,11 +17618,15 @@
         <v>42100077.71465001</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16067,11 +17655,15 @@
         <v>42677484.12734959</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16100,11 +17692,15 @@
         <v>43041470.91994959</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16133,11 +17729,15 @@
         <v>43786094.30524959</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16166,11 +17766,15 @@
         <v>45575562.74521779</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16199,11 +17803,15 @@
         <v>46006022.67548341</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16232,11 +17840,15 @@
         <v>46006022.67548341</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16265,11 +17877,15 @@
         <v>47039210.52328341</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16298,11 +17914,15 @@
         <v>50166444.41833763</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16331,11 +17951,15 @@
         <v>50101473.29613763</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16368,10 +17992,12 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
-      <c r="L475" t="n">
-        <v>1</v>
-      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L475" t="inlineStr"/>
       <c r="M475" t="inlineStr"/>
     </row>
     <row r="476">
@@ -16397,7 +18023,7 @@
         <v>52603099.55881903</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16430,7 +18056,7 @@
         <v>50723789.38612539</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16463,7 +18089,7 @@
         <v>49387335.38352539</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16496,7 +18122,7 @@
         <v>50408846.89842539</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16661,7 +18287,7 @@
         <v>44792198.91292538</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16694,7 +18320,7 @@
         <v>43705381.62152538</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16727,7 +18353,7 @@
         <v>42688064.53552538</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16760,7 +18386,7 @@
         <v>40639550.99082538</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16793,7 +18419,7 @@
         <v>42389569.90392538</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16826,7 +18452,7 @@
         <v>42947759.1859914</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16859,7 +18485,7 @@
         <v>43075516.6946914</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16892,7 +18518,7 @@
         <v>43294449.27019139</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16925,7 +18551,7 @@
         <v>43189439.33919139</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16958,7 +18584,7 @@
         <v>43189439.33919139</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -17090,7 +18716,7 @@
         <v>43147466.11251479</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -17123,7 +18749,7 @@
         <v>43154997.22707223</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17156,7 +18782,7 @@
         <v>43154997.22707223</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -17189,7 +18815,7 @@
         <v>43154997.22707223</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -17222,7 +18848,7 @@
         <v>43437770.02659473</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -17255,7 +18881,7 @@
         <v>43305736.23989473</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -17288,7 +18914,7 @@
         <v>43387990.85869472</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17321,7 +18947,7 @@
         <v>43910543.37599473</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17354,7 +18980,7 @@
         <v>44184041.35149473</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17387,7 +19013,7 @@
         <v>44115434.42952872</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17420,7 +19046,7 @@
         <v>45143062.35052872</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17453,7 +19079,7 @@
         <v>45143062.35052872</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -18344,7 +19970,7 @@
         <v>44912336.57458527</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18377,7 +20003,7 @@
         <v>44980090.88348527</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18410,7 +20036,7 @@
         <v>44980090.88348527</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18443,7 +20069,7 @@
         <v>44944375.75558527</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18476,7 +20102,7 @@
         <v>44944375.75558527</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18509,7 +20135,7 @@
         <v>44857962.89998527</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18542,7 +20168,7 @@
         <v>44857962.89998527</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18575,7 +20201,7 @@
         <v>44857962.89998527</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18608,7 +20234,7 @@
         <v>44858197.16461363</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18641,7 +20267,7 @@
         <v>44858197.16461363</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18674,7 +20300,7 @@
         <v>43726988.43941363</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18707,7 +20333,7 @@
         <v>43726988.43941363</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18740,7 +20366,7 @@
         <v>45005580.73871363</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18773,7 +20399,7 @@
         <v>44922006.18481363</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18806,7 +20432,7 @@
         <v>45050056.14204723</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18839,7 +20465,7 @@
         <v>45050056.14204723</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18872,7 +20498,7 @@
         <v>44912989.46124724</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -22700,7 +24326,7 @@
         <v>38097090.52064604</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -22733,7 +24359,7 @@
         <v>38097570.36514603</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -22766,7 +24392,7 @@
         <v>38097365.19094604</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -22799,7 +24425,7 @@
         <v>38295065.09194604</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -22832,7 +24458,7 @@
         <v>38315293.15924603</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -22865,7 +24491,7 @@
         <v>38315293.15924603</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -22898,7 +24524,7 @@
         <v>38310508.59204604</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -22931,7 +24557,7 @@
         <v>37912193.28694604</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -22964,7 +24590,7 @@
         <v>38034504.73804604</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -22997,7 +24623,7 @@
         <v>37790992.79779305</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -23030,7 +24656,7 @@
         <v>36812661.79689305</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -23063,7 +24689,7 @@
         <v>36613270.14109305</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -23129,7 +24755,7 @@
         <v>37077782.64739305</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -23162,7 +24788,7 @@
         <v>37059633.92679305</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -26165,7 +27791,7 @@
         <v>28000705.37098225</v>
       </c>
       <c r="H772" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -26198,7 +27824,7 @@
         <v>28000705.37098225</v>
       </c>
       <c r="H773" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -26231,7 +27857,7 @@
         <v>28000705.37098225</v>
       </c>
       <c r="H774" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -26429,7 +28055,7 @@
         <v>29596702.84102399</v>
       </c>
       <c r="H780" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -26462,7 +28088,7 @@
         <v>29601694.29562399</v>
       </c>
       <c r="H781" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -26495,7 +28121,7 @@
         <v>29578705.62532399</v>
       </c>
       <c r="H782" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -26528,7 +28154,7 @@
         <v>30131570.19468242</v>
       </c>
       <c r="H783" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -26561,7 +28187,7 @@
         <v>30212910.07948242</v>
       </c>
       <c r="H784" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -26924,7 +28550,7 @@
         <v>33167824.48921166</v>
       </c>
       <c r="H795" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -26957,7 +28583,7 @@
         <v>33149758.25451165</v>
       </c>
       <c r="H796" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -26990,7 +28616,7 @@
         <v>33249760.06065939</v>
       </c>
       <c r="H797" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -27023,7 +28649,7 @@
         <v>33144349.52855939</v>
       </c>
       <c r="H798" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -27056,7 +28682,7 @@
         <v>34085625.41881166</v>
       </c>
       <c r="H799" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -27089,7 +28715,7 @@
         <v>31768538.06041166</v>
       </c>
       <c r="H800" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -27122,7 +28748,7 @@
         <v>32334040.07821166</v>
       </c>
       <c r="H801" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -27155,7 +28781,7 @@
         <v>33167971.25871166</v>
       </c>
       <c r="H802" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -27188,7 +28814,7 @@
         <v>33110197.94851166</v>
       </c>
       <c r="H803" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -27221,7 +28847,7 @@
         <v>32987276.75261166</v>
       </c>
       <c r="H804" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -27254,7 +28880,7 @@
         <v>32865631.81081166</v>
       </c>
       <c r="H805" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -27287,7 +28913,7 @@
         <v>32865631.81081166</v>
       </c>
       <c r="H806" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -27320,7 +28946,7 @@
         <v>32865631.81081166</v>
       </c>
       <c r="H807" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -27353,7 +28979,7 @@
         <v>33221835.19061166</v>
       </c>
       <c r="H808" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -27386,7 +29012,7 @@
         <v>33221835.19061166</v>
       </c>
       <c r="H809" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -27419,7 +29045,7 @@
         <v>33221835.19061166</v>
       </c>
       <c r="H810" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -27452,7 +29078,7 @@
         <v>33221835.19061166</v>
       </c>
       <c r="H811" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -27485,7 +29111,7 @@
         <v>33221835.19061166</v>
       </c>
       <c r="H812" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -27518,7 +29144,7 @@
         <v>33221835.19061166</v>
       </c>
       <c r="H813" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -27551,7 +29177,7 @@
         <v>33138429.69101166</v>
       </c>
       <c r="H814" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -27584,7 +29210,7 @@
         <v>33138429.69101166</v>
       </c>
       <c r="H815" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -27617,7 +29243,7 @@
         <v>33146380.52041166</v>
       </c>
       <c r="H816" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -27650,7 +29276,7 @@
         <v>33160944.24181166</v>
       </c>
       <c r="H817" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -27683,7 +29309,7 @@
         <v>33079978.65491166</v>
       </c>
       <c r="H818" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -27716,7 +29342,7 @@
         <v>32916792.86041166</v>
       </c>
       <c r="H819" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -27749,7 +29375,7 @@
         <v>32857539.11611166</v>
       </c>
       <c r="H820" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -27782,7 +29408,7 @@
         <v>32759619.62071166</v>
       </c>
       <c r="H821" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -27815,7 +29441,7 @@
         <v>32732452.64791166</v>
       </c>
       <c r="H822" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -27848,7 +29474,7 @@
         <v>32845862.93751166</v>
       </c>
       <c r="H823" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -27881,7 +29507,7 @@
         <v>32514362.58691166</v>
       </c>
       <c r="H824" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -27914,7 +29540,7 @@
         <v>32503189.43727748</v>
       </c>
       <c r="H825" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -27947,7 +29573,7 @@
         <v>32502655.24927748</v>
       </c>
       <c r="H826" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -27980,7 +29606,7 @@
         <v>32529942.07038473</v>
       </c>
       <c r="H827" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -28013,7 +29639,7 @@
         <v>32820912.37598472</v>
       </c>
       <c r="H828" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -28046,7 +29672,7 @@
         <v>32820993.10118473</v>
       </c>
       <c r="H829" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -28079,7 +29705,7 @@
         <v>32784680.24671594</v>
       </c>
       <c r="H830" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -28112,7 +29738,7 @@
         <v>32700155.02858907</v>
       </c>
       <c r="H831" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -28145,7 +29771,7 @@
         <v>32700155.02858907</v>
       </c>
       <c r="H832" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -28178,7 +29804,7 @@
         <v>32676912.63578907</v>
       </c>
       <c r="H833" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -28211,7 +29837,7 @@
         <v>32677402.94578907</v>
       </c>
       <c r="H834" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -28244,7 +29870,7 @@
         <v>32683951.50808907</v>
       </c>
       <c r="H835" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -28277,7 +29903,7 @@
         <v>32683951.50808907</v>
       </c>
       <c r="H836" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -28310,7 +29936,7 @@
         <v>32396222.46078907</v>
       </c>
       <c r="H837" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -28343,7 +29969,7 @@
         <v>32095896.91758907</v>
       </c>
       <c r="H838" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -28376,7 +30002,7 @@
         <v>32162795.28308907</v>
       </c>
       <c r="H839" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -28409,7 +30035,7 @@
         <v>32135054.28308907</v>
       </c>
       <c r="H840" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -28442,7 +30068,7 @@
         <v>32135054.28308907</v>
       </c>
       <c r="H841" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -28475,7 +30101,7 @@
         <v>32158343.32968907</v>
       </c>
       <c r="H842" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -28508,7 +30134,7 @@
         <v>32128031.38088907</v>
       </c>
       <c r="H843" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -28541,7 +30167,7 @@
         <v>32030726.56023155</v>
       </c>
       <c r="H844" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -28574,7 +30200,7 @@
         <v>32032650.13723155</v>
       </c>
       <c r="H845" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -28607,7 +30233,7 @@
         <v>32007872.93223155</v>
       </c>
       <c r="H846" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -29861,7 +31487,7 @@
         <v>32617023.82508614</v>
       </c>
       <c r="H884" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -29894,7 +31520,7 @@
         <v>32838970.14418614</v>
       </c>
       <c r="H885" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -29927,7 +31553,7 @@
         <v>32702866.79158614</v>
       </c>
       <c r="H886" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -29960,7 +31586,7 @@
         <v>33032270.09163605</v>
       </c>
       <c r="H887" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -29993,7 +31619,7 @@
         <v>33063315.68103605</v>
       </c>
       <c r="H888" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -30026,7 +31652,7 @@
         <v>33063315.68103605</v>
       </c>
       <c r="H889" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -30059,7 +31685,7 @@
         <v>32962005.52743605</v>
       </c>
       <c r="H890" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -30092,7 +31718,7 @@
         <v>33312366.31053605</v>
       </c>
       <c r="H891" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -30125,7 +31751,7 @@
         <v>33160458.44593605</v>
       </c>
       <c r="H892" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -30158,7 +31784,7 @@
         <v>33208854.65727255</v>
       </c>
       <c r="H893" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -30191,7 +31817,7 @@
         <v>33208854.65727255</v>
       </c>
       <c r="H894" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -30224,7 +31850,7 @@
         <v>33389535.10207255</v>
       </c>
       <c r="H895" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -30257,7 +31883,7 @@
         <v>34362885.76817255</v>
       </c>
       <c r="H896" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -30290,7 +31916,7 @@
         <v>34249501.29297256</v>
       </c>
       <c r="H897" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -30323,7 +31949,7 @@
         <v>34364848.56297256</v>
       </c>
       <c r="H898" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -30356,7 +31982,7 @@
         <v>34334187.62557256</v>
       </c>
       <c r="H899" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -30389,7 +32015,7 @@
         <v>34179986.90617256</v>
       </c>
       <c r="H900" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -30422,7 +32048,7 @@
         <v>34175978.58157256</v>
       </c>
       <c r="H901" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -30455,7 +32081,7 @@
         <v>34207579.49017256</v>
       </c>
       <c r="H902" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -30488,7 +32114,7 @@
         <v>34207579.49017256</v>
       </c>
       <c r="H903" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -30521,7 +32147,7 @@
         <v>34207579.49017256</v>
       </c>
       <c r="H904" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -30554,7 +32180,7 @@
         <v>34670976.82157256</v>
       </c>
       <c r="H905" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -30587,7 +32213,7 @@
         <v>34147870.09777255</v>
       </c>
       <c r="H906" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -30620,7 +32246,7 @@
         <v>34068988.09777255</v>
       </c>
       <c r="H907" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -30653,7 +32279,7 @@
         <v>34052811.49087255</v>
       </c>
       <c r="H908" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -30686,7 +32312,7 @@
         <v>34153588.95437256</v>
       </c>
       <c r="H909" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -30719,7 +32345,7 @@
         <v>34009124.72817256</v>
       </c>
       <c r="H910" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -30752,7 +32378,7 @@
         <v>34069285.65977255</v>
       </c>
       <c r="H911" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -30785,7 +32411,7 @@
         <v>34069285.65977255</v>
       </c>
       <c r="H912" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -30818,7 +32444,7 @@
         <v>33892094.25107256</v>
       </c>
       <c r="H913" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -30851,7 +32477,7 @@
         <v>33849419.04321436</v>
       </c>
       <c r="H914" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -30884,7 +32510,7 @@
         <v>33863540.21831436</v>
       </c>
       <c r="H915" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -30917,7 +32543,7 @@
         <v>33863540.21831436</v>
       </c>
       <c r="H916" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -30950,7 +32576,7 @@
         <v>32722120.04431436</v>
       </c>
       <c r="H917" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -30983,7 +32609,7 @@
         <v>32722120.04431436</v>
       </c>
       <c r="H918" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -31016,7 +32642,7 @@
         <v>33008515.81851436</v>
       </c>
       <c r="H919" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -31049,7 +32675,7 @@
         <v>32966898.81171436</v>
       </c>
       <c r="H920" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -31082,7 +32708,7 @@
         <v>32966898.81171436</v>
       </c>
       <c r="H921" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -31115,7 +32741,7 @@
         <v>33798285.31351436</v>
       </c>
       <c r="H922" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -31148,7 +32774,7 @@
         <v>34109249.03831436</v>
       </c>
       <c r="H923" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -31181,7 +32807,7 @@
         <v>34109249.03831436</v>
       </c>
       <c r="H924" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -31214,7 +32840,7 @@
         <v>34107908.90821436</v>
       </c>
       <c r="H925" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -31247,7 +32873,7 @@
         <v>34107943.76461436</v>
       </c>
       <c r="H926" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -31280,7 +32906,7 @@
         <v>34107943.76461436</v>
       </c>
       <c r="H927" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -31313,7 +32939,7 @@
         <v>34224329.52071436</v>
       </c>
       <c r="H928" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -31346,7 +32972,7 @@
         <v>34224329.52071436</v>
       </c>
       <c r="H929" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -31412,7 +33038,7 @@
         <v>34537279.12781436</v>
       </c>
       <c r="H931" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -33986,7 +35612,7 @@
         <v>44733149.69316962</v>
       </c>
       <c r="H1009" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -34019,7 +35645,7 @@
         <v>46630633.34786963</v>
       </c>
       <c r="H1010" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
@@ -34052,7 +35678,7 @@
         <v>56117394.32256962</v>
       </c>
       <c r="H1011" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -34085,7 +35711,7 @@
         <v>54995278.71257652</v>
       </c>
       <c r="H1012" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -34118,7 +35744,7 @@
         <v>56137524.77607653</v>
       </c>
       <c r="H1013" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
@@ -34151,7 +35777,7 @@
         <v>55316878.10755537</v>
       </c>
       <c r="H1014" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
@@ -34184,7 +35810,7 @@
         <v>55316878.10755537</v>
       </c>
       <c r="H1015" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
@@ -34217,7 +35843,7 @@
         <v>55572237.15135537</v>
       </c>
       <c r="H1016" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
@@ -34250,7 +35876,7 @@
         <v>56663067.35721767</v>
       </c>
       <c r="H1017" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
@@ -34283,7 +35909,7 @@
         <v>58304103.81881767</v>
       </c>
       <c r="H1018" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
@@ -34316,7 +35942,7 @@
         <v>57604982.86051767</v>
       </c>
       <c r="H1019" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
@@ -34349,7 +35975,7 @@
         <v>56308046.11528616</v>
       </c>
       <c r="H1020" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
@@ -34382,7 +36008,7 @@
         <v>56584389.29998616</v>
       </c>
       <c r="H1021" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
@@ -34415,7 +36041,7 @@
         <v>56584389.29998616</v>
       </c>
       <c r="H1022" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
@@ -34448,7 +36074,7 @@
         <v>56584389.29998616</v>
       </c>
       <c r="H1023" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
@@ -34481,7 +36107,7 @@
         <v>56756941.71909337</v>
       </c>
       <c r="H1024" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
@@ -34514,7 +36140,7 @@
         <v>56657595.33629338</v>
       </c>
       <c r="H1025" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
@@ -34547,7 +36173,7 @@
         <v>57400293.05630194</v>
       </c>
       <c r="H1026" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
@@ -34580,7 +36206,7 @@
         <v>64245168.20300194</v>
       </c>
       <c r="H1027" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -34613,7 +36239,7 @@
         <v>61839865.53790194</v>
       </c>
       <c r="H1028" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -34646,7 +36272,7 @@
         <v>61143551.27820194</v>
       </c>
       <c r="H1029" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
@@ -34679,7 +36305,7 @@
         <v>60970726.92190194</v>
       </c>
       <c r="H1030" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -34712,7 +36338,7 @@
         <v>61202314.60120194</v>
       </c>
       <c r="H1031" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
@@ -34745,7 +36371,7 @@
         <v>62247918.04710194</v>
       </c>
       <c r="H1032" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -34778,7 +36404,7 @@
         <v>61162770.40250195</v>
       </c>
       <c r="H1033" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
@@ -34811,7 +36437,7 @@
         <v>60549902.70220195</v>
       </c>
       <c r="H1034" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
@@ -34844,7 +36470,7 @@
         <v>60549902.70220195</v>
       </c>
       <c r="H1035" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
@@ -34877,7 +36503,7 @@
         <v>59232618.88580195</v>
       </c>
       <c r="H1036" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -34910,7 +36536,7 @@
         <v>59409012.42560195</v>
       </c>
       <c r="H1037" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
@@ -34943,7 +36569,7 @@
         <v>58952113.42300195</v>
       </c>
       <c r="H1038" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -34976,7 +36602,7 @@
         <v>59079245.62414307</v>
       </c>
       <c r="H1039" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
@@ -35009,7 +36635,7 @@
         <v>59417204.50364307</v>
       </c>
       <c r="H1040" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
@@ -35042,7 +36668,7 @@
         <v>58382222.60144307</v>
       </c>
       <c r="H1041" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
@@ -35075,7 +36701,7 @@
         <v>58202272.42316186</v>
       </c>
       <c r="H1042" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
@@ -35108,7 +36734,7 @@
         <v>58243372.00463565</v>
       </c>
       <c r="H1043" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
@@ -35141,7 +36767,7 @@
         <v>58203354.79653565</v>
       </c>
       <c r="H1044" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
@@ -35174,7 +36800,7 @@
         <v>58203354.79653565</v>
       </c>
       <c r="H1045" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
@@ -35207,7 +36833,7 @@
         <v>57558639.06688066</v>
       </c>
       <c r="H1046" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
@@ -35240,7 +36866,7 @@
         <v>57087419.41718066</v>
       </c>
       <c r="H1047" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
@@ -35273,7 +36899,7 @@
         <v>56552311.16905681</v>
       </c>
       <c r="H1048" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
@@ -35306,7 +36932,7 @@
         <v>56653541.84475681</v>
       </c>
       <c r="H1049" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
@@ -35339,7 +36965,7 @@
         <v>55488726.19185681</v>
       </c>
       <c r="H1050" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
@@ -35834,7 +37460,7 @@
         <v>56337654.09072501</v>
       </c>
       <c r="H1065" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
@@ -35867,7 +37493,7 @@
         <v>56337654.09072501</v>
       </c>
       <c r="H1066" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
@@ -36098,7 +37724,7 @@
         <v>57434895.6028508</v>
       </c>
       <c r="H1073" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
@@ -36131,7 +37757,7 @@
         <v>57434895.6028508</v>
       </c>
       <c r="H1074" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
@@ -36164,7 +37790,7 @@
         <v>57444450.13735081</v>
       </c>
       <c r="H1075" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
@@ -36197,7 +37823,7 @@
         <v>57114084.9123508</v>
       </c>
       <c r="H1076" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
@@ -36230,7 +37856,7 @@
         <v>57114084.9123508</v>
       </c>
       <c r="H1077" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
@@ -36263,7 +37889,7 @@
         <v>57114084.9123508</v>
       </c>
       <c r="H1078" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
@@ -36296,7 +37922,7 @@
         <v>56990341.66149177</v>
       </c>
       <c r="H1079" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
@@ -36329,7 +37955,7 @@
         <v>56258926.22639178</v>
       </c>
       <c r="H1080" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
@@ -36362,7 +37988,7 @@
         <v>56530926.73751113</v>
       </c>
       <c r="H1081" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
@@ -36395,7 +38021,7 @@
         <v>56521476.43111113</v>
       </c>
       <c r="H1082" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
@@ -36428,7 +38054,7 @@
         <v>56294176.23391113</v>
       </c>
       <c r="H1083" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
@@ -37748,7 +39374,7 @@
         <v>58481636.46907434</v>
       </c>
       <c r="H1123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1123" t="inlineStr"/>
       <c r="J1123" t="inlineStr"/>
@@ -37781,7 +39407,7 @@
         <v>58310585.39177434</v>
       </c>
       <c r="H1124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1124" t="inlineStr"/>
       <c r="J1124" t="inlineStr"/>
@@ -37814,7 +39440,7 @@
         <v>58663055.37135674</v>
       </c>
       <c r="H1125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1125" t="inlineStr"/>
       <c r="J1125" t="inlineStr"/>
@@ -37847,7 +39473,7 @@
         <v>58860540.41902357</v>
       </c>
       <c r="H1126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1126" t="inlineStr"/>
       <c r="J1126" t="inlineStr"/>
@@ -37880,7 +39506,7 @@
         <v>58648578.93942358</v>
       </c>
       <c r="H1127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1127" t="inlineStr"/>
       <c r="J1127" t="inlineStr"/>
@@ -37913,7 +39539,7 @@
         <v>58922897.23442358</v>
       </c>
       <c r="H1128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1128" t="inlineStr"/>
       <c r="J1128" t="inlineStr"/>
@@ -37946,7 +39572,7 @@
         <v>58834279.68582357</v>
       </c>
       <c r="H1129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1129" t="inlineStr"/>
       <c r="J1129" t="inlineStr"/>
@@ -37979,7 +39605,7 @@
         <v>58663549.90232357</v>
       </c>
       <c r="H1130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1130" t="inlineStr"/>
       <c r="J1130" t="inlineStr"/>
@@ -38012,7 +39638,7 @@
         <v>58791464.26272357</v>
       </c>
       <c r="H1131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1131" t="inlineStr"/>
       <c r="J1131" t="inlineStr"/>
@@ -38045,7 +39671,7 @@
         <v>58423012.96882357</v>
       </c>
       <c r="H1132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1132" t="inlineStr"/>
       <c r="J1132" t="inlineStr"/>
@@ -38078,7 +39704,7 @@
         <v>58439018.00972357</v>
       </c>
       <c r="H1133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1133" t="inlineStr"/>
       <c r="J1133" t="inlineStr"/>
@@ -38111,7 +39737,7 @@
         <v>58439943.52402358</v>
       </c>
       <c r="H1134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1134" t="inlineStr"/>
       <c r="J1134" t="inlineStr"/>
@@ -38144,7 +39770,7 @@
         <v>58439943.52402358</v>
       </c>
       <c r="H1135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1135" t="inlineStr"/>
       <c r="J1135" t="inlineStr"/>
@@ -38177,7 +39803,7 @@
         <v>58562935.81976359</v>
       </c>
       <c r="H1136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1136" t="inlineStr"/>
       <c r="J1136" t="inlineStr"/>
@@ -38210,7 +39836,7 @@
         <v>58562935.81976359</v>
       </c>
       <c r="H1137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1137" t="inlineStr"/>
       <c r="J1137" t="inlineStr"/>
@@ -38243,7 +39869,7 @@
         <v>58557074.83396359</v>
       </c>
       <c r="H1138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1138" t="inlineStr"/>
       <c r="J1138" t="inlineStr"/>
@@ -38276,7 +39902,7 @@
         <v>58560277.30426358</v>
       </c>
       <c r="H1139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1139" t="inlineStr"/>
       <c r="J1139" t="inlineStr"/>
@@ -38309,7 +39935,7 @@
         <v>58525289.78086358</v>
       </c>
       <c r="H1140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1140" t="inlineStr"/>
       <c r="J1140" t="inlineStr"/>
@@ -38342,7 +39968,7 @@
         <v>58536777.42306358</v>
       </c>
       <c r="H1141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1141" t="inlineStr"/>
       <c r="J1141" t="inlineStr"/>
@@ -38375,7 +40001,7 @@
         <v>58470284.65597593</v>
       </c>
       <c r="H1142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1142" t="inlineStr"/>
       <c r="J1142" t="inlineStr"/>
@@ -38408,7 +40034,7 @@
         <v>58434370.33197593</v>
       </c>
       <c r="H1143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1143" t="inlineStr"/>
       <c r="J1143" t="inlineStr"/>
@@ -38441,7 +40067,7 @@
         <v>58460958.19707593</v>
       </c>
       <c r="H1144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1144" t="inlineStr"/>
       <c r="J1144" t="inlineStr"/>
@@ -38474,7 +40100,7 @@
         <v>58460958.19707593</v>
       </c>
       <c r="H1145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1145" t="inlineStr"/>
       <c r="J1145" t="inlineStr"/>
@@ -38507,7 +40133,7 @@
         <v>58044471.45177592</v>
       </c>
       <c r="H1146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1146" t="inlineStr"/>
       <c r="J1146" t="inlineStr"/>
@@ -38540,7 +40166,7 @@
         <v>58004471.45177592</v>
       </c>
       <c r="H1147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1147" t="inlineStr"/>
       <c r="J1147" t="inlineStr"/>
@@ -38573,7 +40199,7 @@
         <v>58144450.05897592</v>
       </c>
       <c r="H1148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1148" t="inlineStr"/>
       <c r="J1148" t="inlineStr"/>
@@ -38606,7 +40232,7 @@
         <v>58218091.38727592</v>
       </c>
       <c r="H1149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1149" t="inlineStr"/>
       <c r="J1149" t="inlineStr"/>
@@ -38639,7 +40265,7 @@
         <v>58116922.32087592</v>
       </c>
       <c r="H1150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1150" t="inlineStr"/>
       <c r="J1150" t="inlineStr"/>
@@ -38672,7 +40298,7 @@
         <v>58049797.32087592</v>
       </c>
       <c r="H1151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1151" t="inlineStr"/>
       <c r="J1151" t="inlineStr"/>
@@ -39464,7 +41090,7 @@
         <v>58945471.02707594</v>
       </c>
       <c r="H1175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1175" t="inlineStr"/>
       <c r="J1175" t="inlineStr"/>
